--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-1-200-5 (Бутылка 0,2 л.)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-1-200-5 (Круглая 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="16" r:id="rId1"/>
+    <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
     <sheet name="Данные" sheetId="15" r:id="rId2"/>
     <sheet name="Акт приемки" sheetId="14" r:id="rId3"/>
     <sheet name="Чист. форма" sheetId="8" r:id="rId4"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Паспорт!$A$1:$I$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
@@ -512,9 +512,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -804,6 +804,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -3318,360 +3320,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3858,24 +3508,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="47" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3886,21 +3524,385 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6161,8 +6163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6182,569 +6184,569 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="511" t="s">
+      <c r="A1" s="487" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
-      <c r="F1" s="511"/>
-      <c r="G1" s="511"/>
-      <c r="H1" s="511"/>
-      <c r="I1" s="511"/>
-      <c r="J1" s="512"/>
-      <c r="K1" s="512"/>
-      <c r="L1" s="512"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="393"/>
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="511" t="s">
+      <c r="A2" s="487" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="511"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
-      <c r="E2" s="511"/>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
-      <c r="H2" s="511"/>
-      <c r="I2" s="511"/>
-      <c r="J2" s="513"/>
-      <c r="K2" s="513"/>
-      <c r="L2" s="513"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="514" t="s">
+      <c r="A3" s="488" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="514"/>
-      <c r="C3" s="514"/>
-      <c r="D3" s="514"/>
-      <c r="E3" s="514"/>
-      <c r="F3" s="514"/>
-      <c r="G3" s="514"/>
-      <c r="H3" s="514"/>
-      <c r="I3" s="514"/>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="516"/>
+      <c r="B3" s="488"/>
+      <c r="C3" s="488"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="488"/>
+      <c r="G3" s="488"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="488"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="396"/>
     </row>
     <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="516"/>
-      <c r="B4" s="517"/>
-      <c r="C4" s="517"/>
-      <c r="F4" s="518"/>
-      <c r="G4" s="519"/>
-      <c r="H4" s="518"/>
-      <c r="I4" s="518"/>
-      <c r="J4" s="515"/>
-      <c r="K4" s="515"/>
+      <c r="A4" s="396"/>
+      <c r="B4" s="397"/>
+      <c r="C4" s="397"/>
+      <c r="F4" s="398"/>
+      <c r="G4" s="399"/>
+      <c r="H4" s="398"/>
+      <c r="I4" s="398"/>
+      <c r="J4" s="395"/>
+      <c r="K4" s="395"/>
       <c r="M4" s="375"/>
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="520" t="s">
+      <c r="A5" s="400" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="521" t="s">
+      <c r="B5" s="401" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="521" t="s">
+      <c r="C5" s="401" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="521" t="s">
+      <c r="D5" s="401" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="521" t="s">
+      <c r="E5" s="401" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="521" t="s">
+      <c r="F5" s="401" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="521" t="s">
+      <c r="G5" s="401" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="522" t="s">
+      <c r="H5" s="402" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="523"/>
-      <c r="J5" s="523"/>
-      <c r="K5" s="523"/>
-      <c r="L5" s="523"/>
+      <c r="I5" s="403"/>
+      <c r="J5" s="403"/>
+      <c r="K5" s="403"/>
+      <c r="L5" s="403"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="524">
+      <c r="A6" s="404">
         <v>1</v>
       </c>
-      <c r="B6" s="525" t="s">
+      <c r="B6" s="405" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="526" t="s">
+      <c r="C6" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="527">
+      <c r="D6" s="407">
         <v>24</v>
       </c>
-      <c r="E6" s="527">
+      <c r="E6" s="407">
         <v>24</v>
       </c>
-      <c r="F6" s="528"/>
-      <c r="G6" s="527">
+      <c r="F6" s="408"/>
+      <c r="G6" s="407">
         <f>E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="529"/>
-      <c r="I6" s="530"/>
-      <c r="J6" s="516"/>
-      <c r="K6" s="516"/>
-      <c r="L6" s="530"/>
+      <c r="H6" s="409"/>
+      <c r="I6" s="410"/>
+      <c r="J6" s="396"/>
+      <c r="K6" s="396"/>
+      <c r="L6" s="410"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="531">
+      <c r="A7" s="411">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="532" t="s">
+      <c r="B7" s="412" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="526" t="s">
+      <c r="C7" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="526">
+      <c r="D7" s="406">
         <v>24</v>
       </c>
-      <c r="E7" s="526">
+      <c r="E7" s="406">
         <v>24</v>
       </c>
       <c r="F7" s="392"/>
-      <c r="G7" s="526">
+      <c r="G7" s="406">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
         <v>24</v>
       </c>
-      <c r="H7" s="533"/>
-      <c r="I7" s="530"/>
-      <c r="J7" s="516"/>
-      <c r="K7" s="516"/>
-      <c r="L7" s="530"/>
+      <c r="H7" s="413"/>
+      <c r="I7" s="410"/>
+      <c r="J7" s="396"/>
+      <c r="K7" s="396"/>
+      <c r="L7" s="410"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="531">
+      <c r="A8" s="411">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="532" t="s">
+      <c r="B8" s="412" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="526" t="s">
+      <c r="C8" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="526">
+      <c r="D8" s="406">
         <v>32</v>
       </c>
-      <c r="E8" s="526">
+      <c r="E8" s="406">
         <v>32</v>
       </c>
       <c r="F8" s="392"/>
-      <c r="G8" s="526">
+      <c r="G8" s="406">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="534"/>
-      <c r="I8" s="530"/>
-      <c r="J8" s="516"/>
-      <c r="K8" s="516"/>
-      <c r="L8" s="530"/>
+      <c r="H8" s="414"/>
+      <c r="I8" s="410"/>
+      <c r="J8" s="396"/>
+      <c r="K8" s="396"/>
+      <c r="L8" s="410"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="531">
+      <c r="A9" s="411">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="532" t="s">
+      <c r="B9" s="412" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="526" t="s">
+      <c r="C9" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="526">
+      <c r="D9" s="406">
         <v>32</v>
       </c>
-      <c r="E9" s="526">
+      <c r="E9" s="406">
         <v>32</v>
       </c>
       <c r="F9" s="392"/>
-      <c r="G9" s="526">
+      <c r="G9" s="406">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="534"/>
-      <c r="I9" s="530"/>
-      <c r="J9" s="535"/>
-      <c r="K9" s="516"/>
-      <c r="L9" s="530"/>
+      <c r="H9" s="414"/>
+      <c r="I9" s="410"/>
+      <c r="J9" s="415"/>
+      <c r="K9" s="396"/>
+      <c r="L9" s="410"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="531">
+      <c r="A10" s="411">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="536" t="s">
+      <c r="B10" s="416" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="526" t="s">
+      <c r="C10" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="526">
+      <c r="D10" s="406">
         <v>20</v>
       </c>
-      <c r="E10" s="526">
+      <c r="E10" s="406">
         <v>20</v>
       </c>
       <c r="F10" s="392"/>
-      <c r="G10" s="526">
+      <c r="G10" s="406">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="534"/>
-      <c r="I10" s="535"/>
-      <c r="J10" s="535"/>
-      <c r="K10" s="535"/>
-      <c r="L10" s="530"/>
+      <c r="H10" s="414"/>
+      <c r="I10" s="415"/>
+      <c r="J10" s="415"/>
+      <c r="K10" s="415"/>
+      <c r="L10" s="410"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="531">
+      <c r="A11" s="411">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="532" t="s">
+      <c r="B11" s="412" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="526" t="s">
+      <c r="C11" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="526">
+      <c r="D11" s="406">
         <v>20</v>
       </c>
-      <c r="E11" s="526">
+      <c r="E11" s="406">
         <v>20</v>
       </c>
       <c r="F11" s="392"/>
-      <c r="G11" s="526">
+      <c r="G11" s="406">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H11" s="534"/>
-      <c r="I11" s="530"/>
-      <c r="J11" s="535"/>
-      <c r="K11" s="516"/>
-      <c r="L11" s="530"/>
+      <c r="H11" s="414"/>
+      <c r="I11" s="410"/>
+      <c r="J11" s="415"/>
+      <c r="K11" s="396"/>
+      <c r="L11" s="410"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="531">
+      <c r="A12" s="411">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="532" t="s">
+      <c r="B12" s="412" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="526" t="s">
+      <c r="C12" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="526">
+      <c r="D12" s="406">
         <v>60</v>
       </c>
-      <c r="E12" s="526">
+      <c r="E12" s="406">
         <v>60</v>
       </c>
-      <c r="F12" s="537"/>
-      <c r="G12" s="526">
+      <c r="F12" s="417"/>
+      <c r="G12" s="406">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H12" s="534"/>
-      <c r="I12" s="535"/>
-      <c r="J12" s="535"/>
-      <c r="K12" s="535"/>
-      <c r="L12" s="530"/>
-      <c r="M12" s="538"/>
+      <c r="H12" s="414"/>
+      <c r="I12" s="415"/>
+      <c r="J12" s="415"/>
+      <c r="K12" s="415"/>
+      <c r="L12" s="410"/>
+      <c r="M12" s="418"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="531">
+      <c r="A13" s="411">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="536" t="s">
+      <c r="B13" s="416" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="526" t="s">
+      <c r="C13" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="526">
+      <c r="D13" s="406">
         <v>20</v>
       </c>
-      <c r="E13" s="526">
+      <c r="E13" s="406">
         <v>20</v>
       </c>
-      <c r="F13" s="539"/>
-      <c r="G13" s="526">
+      <c r="F13" s="419"/>
+      <c r="G13" s="406">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="534"/>
-      <c r="I13" s="535"/>
-      <c r="J13" s="535"/>
-      <c r="K13" s="535"/>
-      <c r="L13" s="530"/>
-      <c r="M13" s="538"/>
+      <c r="H13" s="414"/>
+      <c r="I13" s="415"/>
+      <c r="J13" s="415"/>
+      <c r="K13" s="415"/>
+      <c r="L13" s="410"/>
+      <c r="M13" s="418"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="531">
+      <c r="A14" s="411">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="536" t="s">
+      <c r="B14" s="416" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="526" t="s">
+      <c r="C14" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="526">
+      <c r="D14" s="406">
         <v>8</v>
       </c>
-      <c r="E14" s="526">
+      <c r="E14" s="406">
         <v>8</v>
       </c>
       <c r="F14" s="392"/>
-      <c r="G14" s="526">
+      <c r="G14" s="406">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H14" s="534" t="s">
+      <c r="H14" s="414" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="535"/>
-      <c r="J14" s="535"/>
-      <c r="K14" s="535"/>
-      <c r="L14" s="530"/>
+      <c r="I14" s="415"/>
+      <c r="J14" s="415"/>
+      <c r="K14" s="415"/>
+      <c r="L14" s="410"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="531">
+      <c r="A15" s="411">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="532" t="s">
+      <c r="B15" s="412" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="526" t="s">
+      <c r="C15" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="526">
+      <c r="D15" s="406">
         <v>50</v>
       </c>
-      <c r="E15" s="526">
+      <c r="E15" s="406">
         <v>50</v>
       </c>
-      <c r="F15" s="537"/>
-      <c r="G15" s="526">
+      <c r="F15" s="417"/>
+      <c r="G15" s="406">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="534"/>
-      <c r="I15" s="535"/>
-      <c r="J15" s="535"/>
-      <c r="K15" s="535"/>
-      <c r="L15" s="530"/>
+      <c r="H15" s="414"/>
+      <c r="I15" s="415"/>
+      <c r="J15" s="415"/>
+      <c r="K15" s="415"/>
+      <c r="L15" s="410"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="531">
+      <c r="A16" s="411">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="532" t="s">
+      <c r="B16" s="412" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="526" t="s">
+      <c r="C16" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="526">
+      <c r="D16" s="406">
         <v>60</v>
       </c>
-      <c r="E16" s="526">
+      <c r="E16" s="406">
         <v>60</v>
       </c>
       <c r="F16" s="392"/>
-      <c r="G16" s="526">
+      <c r="G16" s="406">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H16" s="534"/>
-      <c r="I16" s="535"/>
-      <c r="J16" s="535"/>
-      <c r="K16" s="535"/>
-      <c r="L16" s="530"/>
+      <c r="H16" s="414"/>
+      <c r="I16" s="415"/>
+      <c r="J16" s="415"/>
+      <c r="K16" s="415"/>
+      <c r="L16" s="410"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="540">
+      <c r="A17" s="420">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="541" t="s">
+      <c r="B17" s="421" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="542" t="s">
+      <c r="C17" s="422" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="542" t="s">
+      <c r="D17" s="422" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="542">
+      <c r="E17" s="422">
         <v>24</v>
       </c>
-      <c r="F17" s="543"/>
-      <c r="G17" s="542">
+      <c r="F17" s="423"/>
+      <c r="G17" s="422">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H17" s="544"/>
-      <c r="I17" s="535"/>
-      <c r="J17" s="545"/>
-      <c r="K17" s="535"/>
-      <c r="L17" s="530"/>
+      <c r="H17" s="424"/>
+      <c r="I17" s="415"/>
+      <c r="J17" s="425"/>
+      <c r="K17" s="415"/>
+      <c r="L17" s="410"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="546"/>
-      <c r="B18" s="547"/>
-      <c r="C18" s="516"/>
-      <c r="D18" s="516"/>
-      <c r="E18" s="516"/>
-      <c r="F18" s="516"/>
-      <c r="G18" s="516"/>
-      <c r="H18" s="516"/>
-      <c r="I18" s="516"/>
-      <c r="J18" s="516"/>
+      <c r="A18" s="426"/>
+      <c r="B18" s="427"/>
+      <c r="C18" s="396"/>
+      <c r="D18" s="396"/>
+      <c r="E18" s="396"/>
+      <c r="F18" s="396"/>
+      <c r="G18" s="396"/>
+      <c r="H18" s="396"/>
+      <c r="I18" s="396"/>
+      <c r="J18" s="396"/>
     </row>
     <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="516"/>
-      <c r="B19" s="548" t="s">
+      <c r="A19" s="396"/>
+      <c r="B19" s="428" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="375"/>
       <c r="D19" s="375"/>
       <c r="E19" s="375"/>
       <c r="F19" s="375"/>
-      <c r="G19" s="516"/>
-      <c r="H19" s="516"/>
-      <c r="I19" s="516"/>
-      <c r="J19" s="549"/>
-      <c r="K19" s="549"/>
-      <c r="L19" s="549"/>
+      <c r="G19" s="396"/>
+      <c r="H19" s="396"/>
+      <c r="I19" s="396"/>
+      <c r="J19" s="429"/>
+      <c r="K19" s="429"/>
+      <c r="L19" s="429"/>
     </row>
     <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="520" t="s">
+      <c r="A20" s="400" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="521" t="s">
+      <c r="B20" s="401" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="521" t="s">
+      <c r="C20" s="401" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="521" t="s">
+      <c r="D20" s="401" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="521" t="s">
+      <c r="E20" s="401" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="521" t="s">
+      <c r="F20" s="401" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="550" t="s">
+      <c r="G20" s="430" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="551" t="s">
+      <c r="H20" s="431" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="552" t="s">
+      <c r="I20" s="432" t="s">
         <v>147</v>
       </c>
-      <c r="J20" s="523"/>
-      <c r="K20" s="523"/>
-      <c r="L20" s="523"/>
+      <c r="J20" s="403"/>
+      <c r="K20" s="403"/>
+      <c r="L20" s="403"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="553">
+      <c r="A21" s="433">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="554">
+      <c r="B21" s="434">
         <v>43754</v>
       </c>
-      <c r="C21" s="555">
+      <c r="C21" s="435">
         <v>43766</v>
       </c>
-      <c r="D21" s="554">
+      <c r="D21" s="434">
         <v>43769</v>
       </c>
-      <c r="E21" s="556">
+      <c r="E21" s="436">
         <v>2527011</v>
       </c>
-      <c r="F21" s="556">
+      <c r="F21" s="436">
         <v>2734020</v>
       </c>
-      <c r="G21" s="557">
+      <c r="G21" s="437">
         <f>F21/A$21</f>
         <v>0.16273928571428573</v>
       </c>
-      <c r="H21" s="558">
+      <c r="H21" s="438">
         <f>A21-F21</f>
         <v>14065980</v>
       </c>
-      <c r="I21" s="559">
+      <c r="I21" s="439">
         <f>1-G21</f>
         <v>0.83726071428571425</v>
       </c>
-      <c r="J21" s="560"/>
-      <c r="K21" s="535"/>
-      <c r="L21" s="535"/>
+      <c r="J21" s="440"/>
+      <c r="K21" s="415"/>
+      <c r="L21" s="415"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="561"/>
-      <c r="B22" s="562"/>
-      <c r="C22" s="562"/>
-      <c r="D22" s="562"/>
-      <c r="E22" s="563"/>
-      <c r="F22" s="563"/>
-      <c r="G22" s="557">
+      <c r="A22" s="441"/>
+      <c r="B22" s="442"/>
+      <c r="C22" s="442"/>
+      <c r="D22" s="442"/>
+      <c r="E22" s="443"/>
+      <c r="F22" s="443"/>
+      <c r="G22" s="437">
         <f>F22/A$21</f>
         <v>0</v>
       </c>
-      <c r="H22" s="564">
+      <c r="H22" s="444">
         <f>H21-F22</f>
         <v>14065980</v>
       </c>
-      <c r="I22" s="565">
+      <c r="I22" s="445">
         <f>I21-G22</f>
         <v>0.83726071428571425</v>
       </c>
-      <c r="J22" s="516"/>
-      <c r="K22" s="516"/>
-      <c r="L22" s="516"/>
+      <c r="J22" s="396"/>
+      <c r="K22" s="396"/>
+      <c r="L22" s="396"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="566"/>
-      <c r="B23" s="567"/>
-      <c r="C23" s="567"/>
-      <c r="D23" s="567"/>
-      <c r="E23" s="568"/>
-      <c r="F23" s="568"/>
-      <c r="G23" s="569"/>
-      <c r="H23" s="570"/>
-      <c r="I23" s="571"/>
-      <c r="J23" s="560"/>
-      <c r="K23" s="535"/>
-      <c r="L23" s="535"/>
+      <c r="A23" s="446"/>
+      <c r="B23" s="447"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="447"/>
+      <c r="E23" s="448"/>
+      <c r="F23" s="448"/>
+      <c r="G23" s="449"/>
+      <c r="H23" s="450"/>
+      <c r="I23" s="451"/>
+      <c r="J23" s="440"/>
+      <c r="K23" s="415"/>
+      <c r="L23" s="415"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="566"/>
+      <c r="A24" s="446"/>
       <c r="B24" s="390"/>
       <c r="C24" s="390"/>
       <c r="D24" s="390"/>
@@ -6752,412 +6754,418 @@
       <c r="F24" s="390"/>
       <c r="G24" s="390"/>
       <c r="H24" s="390"/>
-      <c r="I24" s="572"/>
-      <c r="J24" s="560"/>
-      <c r="K24" s="560"/>
-      <c r="L24" s="516"/>
+      <c r="I24" s="452"/>
+      <c r="J24" s="440"/>
+      <c r="K24" s="440"/>
+      <c r="L24" s="396"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="566"/>
-      <c r="B25" s="567"/>
-      <c r="C25" s="567"/>
-      <c r="D25" s="567"/>
-      <c r="E25" s="568"/>
-      <c r="F25" s="568"/>
-      <c r="G25" s="573"/>
-      <c r="H25" s="570"/>
-      <c r="I25" s="571"/>
-      <c r="J25" s="560"/>
-      <c r="K25" s="574"/>
-      <c r="L25" s="516"/>
+      <c r="A25" s="446"/>
+      <c r="B25" s="447"/>
+      <c r="C25" s="447"/>
+      <c r="D25" s="447"/>
+      <c r="E25" s="448"/>
+      <c r="F25" s="448"/>
+      <c r="G25" s="453"/>
+      <c r="H25" s="450"/>
+      <c r="I25" s="451"/>
+      <c r="J25" s="440"/>
+      <c r="K25" s="454"/>
+      <c r="L25" s="396"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="566"/>
-      <c r="B26" s="567"/>
-      <c r="C26" s="567"/>
-      <c r="D26" s="567"/>
-      <c r="E26" s="568"/>
-      <c r="F26" s="568"/>
-      <c r="G26" s="573"/>
-      <c r="H26" s="570"/>
-      <c r="I26" s="571"/>
-      <c r="J26" s="560"/>
-      <c r="K26" s="560"/>
-      <c r="L26" s="516"/>
+      <c r="A26" s="446"/>
+      <c r="B26" s="447"/>
+      <c r="C26" s="447"/>
+      <c r="D26" s="447"/>
+      <c r="E26" s="448"/>
+      <c r="F26" s="448"/>
+      <c r="G26" s="453"/>
+      <c r="H26" s="450"/>
+      <c r="I26" s="451"/>
+      <c r="J26" s="440"/>
+      <c r="K26" s="440"/>
+      <c r="L26" s="396"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="566"/>
-      <c r="B27" s="567"/>
-      <c r="C27" s="567"/>
-      <c r="D27" s="567"/>
-      <c r="E27" s="570"/>
-      <c r="F27" s="568"/>
-      <c r="G27" s="573"/>
-      <c r="H27" s="570"/>
-      <c r="I27" s="571"/>
-      <c r="J27" s="560"/>
-      <c r="K27" s="560"/>
-      <c r="L27" s="516"/>
+      <c r="A27" s="446"/>
+      <c r="B27" s="447"/>
+      <c r="C27" s="447"/>
+      <c r="D27" s="447"/>
+      <c r="E27" s="450"/>
+      <c r="F27" s="448"/>
+      <c r="G27" s="453"/>
+      <c r="H27" s="450"/>
+      <c r="I27" s="451"/>
+      <c r="J27" s="440"/>
+      <c r="K27" s="440"/>
+      <c r="L27" s="396"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="566"/>
-      <c r="B28" s="567"/>
-      <c r="C28" s="567"/>
-      <c r="D28" s="567"/>
-      <c r="E28" s="570"/>
-      <c r="F28" s="568"/>
-      <c r="G28" s="573"/>
-      <c r="H28" s="570"/>
-      <c r="I28" s="571"/>
-      <c r="J28" s="560"/>
-      <c r="K28" s="560"/>
-      <c r="L28" s="516"/>
+      <c r="A28" s="446"/>
+      <c r="B28" s="447"/>
+      <c r="C28" s="447"/>
+      <c r="D28" s="447"/>
+      <c r="E28" s="450"/>
+      <c r="F28" s="448"/>
+      <c r="G28" s="453"/>
+      <c r="H28" s="450"/>
+      <c r="I28" s="451"/>
+      <c r="J28" s="440"/>
+      <c r="K28" s="440"/>
+      <c r="L28" s="396"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="566"/>
-      <c r="B29" s="567"/>
-      <c r="C29" s="567"/>
+      <c r="A29" s="446"/>
+      <c r="B29" s="447"/>
+      <c r="C29" s="447"/>
       <c r="D29" s="390"/>
       <c r="E29" s="390"/>
-      <c r="F29" s="568"/>
-      <c r="G29" s="575"/>
-      <c r="H29" s="570"/>
-      <c r="I29" s="576"/>
-      <c r="J29" s="560"/>
-      <c r="K29" s="560"/>
-      <c r="L29" s="516"/>
+      <c r="F29" s="448"/>
+      <c r="G29" s="455"/>
+      <c r="H29" s="450"/>
+      <c r="I29" s="456"/>
+      <c r="J29" s="440"/>
+      <c r="K29" s="440"/>
+      <c r="L29" s="396"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="566"/>
-      <c r="B30" s="567"/>
-      <c r="C30" s="567"/>
+      <c r="A30" s="446"/>
+      <c r="B30" s="447"/>
+      <c r="C30" s="447"/>
       <c r="D30" s="390"/>
       <c r="E30" s="390"/>
-      <c r="F30" s="568"/>
-      <c r="G30" s="573"/>
-      <c r="H30" s="570"/>
-      <c r="I30" s="576"/>
-      <c r="J30" s="560"/>
-      <c r="K30" s="560"/>
-      <c r="L30" s="516"/>
+      <c r="F30" s="448"/>
+      <c r="G30" s="453"/>
+      <c r="H30" s="450"/>
+      <c r="I30" s="456"/>
+      <c r="J30" s="440"/>
+      <c r="K30" s="440"/>
+      <c r="L30" s="396"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="577"/>
-      <c r="B31" s="578"/>
-      <c r="C31" s="578"/>
-      <c r="D31" s="579"/>
-      <c r="E31" s="579"/>
-      <c r="F31" s="580"/>
-      <c r="G31" s="581"/>
-      <c r="H31" s="582"/>
-      <c r="I31" s="583"/>
-      <c r="J31" s="516"/>
-      <c r="K31" s="516"/>
-      <c r="L31" s="516"/>
+      <c r="A31" s="457"/>
+      <c r="B31" s="458"/>
+      <c r="C31" s="458"/>
+      <c r="D31" s="459"/>
+      <c r="E31" s="459"/>
+      <c r="F31" s="460"/>
+      <c r="G31" s="461"/>
+      <c r="H31" s="462"/>
+      <c r="I31" s="463"/>
+      <c r="J31" s="396"/>
+      <c r="K31" s="396"/>
+      <c r="L31" s="396"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="584" t="s">
+      <c r="A32" s="464" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="585"/>
-      <c r="C32" s="585"/>
-      <c r="D32" s="586"/>
-      <c r="E32" s="587">
+      <c r="B32" s="465"/>
+      <c r="C32" s="465"/>
+      <c r="D32" s="466"/>
+      <c r="E32" s="467">
         <f>SUM(E21:E31)</f>
         <v>2527011</v>
       </c>
-      <c r="F32" s="588">
+      <c r="F32" s="468">
         <f>SUM(F21:F31)</f>
         <v>2734020</v>
       </c>
-      <c r="G32" s="589">
+      <c r="G32" s="469">
         <f>SUM(G21:G31)</f>
         <v>0.16273928571428573</v>
       </c>
-      <c r="H32" s="590">
+      <c r="H32" s="470">
         <f>A21-F32</f>
         <v>14065980</v>
       </c>
-      <c r="I32" s="591">
+      <c r="I32" s="471">
         <f>1-G32</f>
         <v>0.83726071428571425</v>
       </c>
-      <c r="J32" s="592"/>
-      <c r="K32" s="592"/>
-      <c r="L32" s="592"/>
+      <c r="J32" s="472"/>
+      <c r="K32" s="472"/>
+      <c r="L32" s="472"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="516"/>
-      <c r="B35" s="516"/>
-      <c r="C35" s="516"/>
-      <c r="D35" s="516"/>
-      <c r="E35" s="516"/>
-      <c r="F35" s="516"/>
-      <c r="G35" s="516"/>
-      <c r="H35" s="516"/>
-      <c r="I35" s="516"/>
-      <c r="J35" s="516"/>
+      <c r="A35" s="396"/>
+      <c r="B35" s="396"/>
+      <c r="C35" s="396"/>
+      <c r="D35" s="396"/>
+      <c r="E35" s="396"/>
+      <c r="F35" s="396"/>
+      <c r="G35" s="396"/>
+      <c r="H35" s="396"/>
+      <c r="I35" s="396"/>
+      <c r="J35" s="396"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="593" t="s">
+      <c r="A36" s="489" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="593"/>
-      <c r="C36" s="593"/>
-      <c r="D36" s="593"/>
-      <c r="E36" s="516"/>
-      <c r="F36" s="516"/>
-      <c r="G36" s="516"/>
-      <c r="H36" s="516"/>
-      <c r="I36" s="516"/>
-      <c r="J36" s="516"/>
+      <c r="B36" s="489"/>
+      <c r="C36" s="489"/>
+      <c r="D36" s="489"/>
+      <c r="E36" s="396"/>
+      <c r="F36" s="396"/>
+      <c r="G36" s="396"/>
+      <c r="H36" s="396"/>
+      <c r="I36" s="396"/>
+      <c r="J36" s="396"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="594" t="s">
+      <c r="A37" s="490" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="594"/>
-      <c r="C37" s="595" t="s">
+      <c r="B37" s="490"/>
+      <c r="C37" s="473" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="595" t="s">
+      <c r="D37" s="473" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="516"/>
-      <c r="F37" s="516"/>
-      <c r="G37" s="516"/>
-      <c r="H37" s="516"/>
-      <c r="I37" s="516"/>
-      <c r="J37" s="516"/>
+      <c r="E37" s="396"/>
+      <c r="F37" s="396"/>
+      <c r="G37" s="396"/>
+      <c r="H37" s="396"/>
+      <c r="I37" s="396"/>
+      <c r="J37" s="396"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="596">
+      <c r="A38" s="491">
         <f>A21-F32</f>
         <v>14065980</v>
       </c>
-      <c r="B38" s="597"/>
-      <c r="C38" s="598">
+      <c r="B38" s="492"/>
+      <c r="C38" s="474">
         <f>1-G32</f>
         <v>0.83726071428571425</v>
       </c>
-      <c r="D38" s="599">
+      <c r="D38" s="475">
         <f>(C38/0.8)*100</f>
         <v>104.65758928571427</v>
       </c>
-      <c r="E38" s="600" t="s">
+      <c r="E38" s="476" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="600"/>
-      <c r="G38" s="600"/>
-      <c r="H38" s="600"/>
-      <c r="I38" s="600"/>
-      <c r="J38" s="600"/>
+      <c r="F38" s="476"/>
+      <c r="G38" s="476"/>
+      <c r="H38" s="476"/>
+      <c r="I38" s="476"/>
+      <c r="J38" s="476"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="516"/>
-      <c r="B39" s="516"/>
-      <c r="C39" s="516"/>
-      <c r="D39" s="516"/>
-      <c r="E39" s="516"/>
-      <c r="F39" s="516"/>
+      <c r="A39" s="396"/>
+      <c r="B39" s="396"/>
+      <c r="C39" s="396"/>
+      <c r="D39" s="396"/>
+      <c r="E39" s="396"/>
+      <c r="F39" s="396"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="516"/>
-      <c r="B40" s="516"/>
-      <c r="C40" s="516"/>
-      <c r="D40" s="516"/>
-      <c r="E40" s="516"/>
-      <c r="F40" s="516"/>
-      <c r="G40" s="516"/>
-      <c r="H40" s="516"/>
-      <c r="I40" s="516"/>
-      <c r="J40" s="516"/>
+      <c r="A40" s="396"/>
+      <c r="B40" s="396"/>
+      <c r="C40" s="396"/>
+      <c r="D40" s="396"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="396"/>
+      <c r="G40" s="396"/>
+      <c r="H40" s="396"/>
+      <c r="I40" s="396"/>
+      <c r="J40" s="396"/>
       <c r="K40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="516"/>
-      <c r="B41" s="601"/>
-      <c r="C41" s="601"/>
-      <c r="D41" s="516"/>
-      <c r="E41" s="516"/>
-      <c r="F41" s="516"/>
-      <c r="G41" s="516"/>
-      <c r="H41" s="516"/>
-      <c r="I41" s="516"/>
-      <c r="J41" s="516"/>
+      <c r="A41" s="396"/>
+      <c r="B41" s="477"/>
+      <c r="C41" s="477"/>
+      <c r="D41" s="396"/>
+      <c r="E41" s="396"/>
+      <c r="F41" s="396"/>
+      <c r="G41" s="396"/>
+      <c r="H41" s="396"/>
+      <c r="I41" s="396"/>
+      <c r="J41" s="396"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="602"/>
-      <c r="B42" s="602"/>
-      <c r="C42" s="602"/>
-      <c r="D42" s="602"/>
-      <c r="E42" s="602"/>
-      <c r="F42" s="602"/>
-      <c r="G42" s="602"/>
-      <c r="H42" s="602"/>
-      <c r="I42" s="603"/>
-      <c r="J42" s="604"/>
+      <c r="A42" s="478"/>
+      <c r="B42" s="478"/>
+      <c r="C42" s="478"/>
+      <c r="D42" s="478"/>
+      <c r="E42" s="478"/>
+      <c r="F42" s="478"/>
+      <c r="G42" s="478"/>
+      <c r="H42" s="478"/>
+      <c r="I42" s="482"/>
+      <c r="J42" s="483"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="605"/>
-      <c r="B43" s="606"/>
-      <c r="C43" s="606"/>
-      <c r="D43" s="516"/>
-      <c r="E43" s="516"/>
-      <c r="F43" s="606"/>
-      <c r="G43" s="545"/>
-      <c r="H43" s="606"/>
+      <c r="A43" s="479"/>
+      <c r="B43" s="480"/>
+      <c r="C43" s="480"/>
+      <c r="D43" s="396"/>
+      <c r="E43" s="396"/>
+      <c r="F43" s="480"/>
+      <c r="G43" s="425"/>
+      <c r="H43" s="480"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="605"/>
-      <c r="B44" s="606"/>
-      <c r="C44" s="606"/>
-      <c r="D44" s="606"/>
-      <c r="E44" s="606"/>
-      <c r="F44" s="606"/>
-      <c r="G44" s="545"/>
-      <c r="H44" s="606"/>
+      <c r="A44" s="479"/>
+      <c r="B44" s="480"/>
+      <c r="C44" s="480"/>
+      <c r="D44" s="480"/>
+      <c r="E44" s="480"/>
+      <c r="F44" s="480"/>
+      <c r="G44" s="425"/>
+      <c r="H44" s="480"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="605"/>
-      <c r="B45" s="606"/>
-      <c r="C45" s="606"/>
-      <c r="D45" s="516"/>
-      <c r="E45" s="516"/>
-      <c r="F45" s="606"/>
-      <c r="G45" s="545"/>
-      <c r="H45" s="606"/>
+      <c r="A45" s="479"/>
+      <c r="B45" s="480"/>
+      <c r="C45" s="480"/>
+      <c r="D45" s="396"/>
+      <c r="E45" s="396"/>
+      <c r="F45" s="480"/>
+      <c r="G45" s="425"/>
+      <c r="H45" s="480"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="605"/>
-      <c r="B46" s="606"/>
-      <c r="C46" s="606"/>
-      <c r="D46" s="606"/>
-      <c r="E46" s="606"/>
-      <c r="F46" s="606"/>
-      <c r="G46" s="545"/>
-      <c r="H46" s="606"/>
+      <c r="A46" s="479"/>
+      <c r="B46" s="480"/>
+      <c r="C46" s="480"/>
+      <c r="D46" s="480"/>
+      <c r="E46" s="480"/>
+      <c r="F46" s="480"/>
+      <c r="G46" s="425"/>
+      <c r="H46" s="480"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="605"/>
-      <c r="B47" s="606"/>
-      <c r="C47" s="606"/>
-      <c r="D47" s="516"/>
-      <c r="E47" s="516"/>
-      <c r="F47" s="606"/>
-      <c r="G47" s="545"/>
-      <c r="H47" s="606"/>
+      <c r="A47" s="479"/>
+      <c r="B47" s="480"/>
+      <c r="C47" s="480"/>
+      <c r="D47" s="396"/>
+      <c r="E47" s="396"/>
+      <c r="F47" s="480"/>
+      <c r="G47" s="425"/>
+      <c r="H47" s="480"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="605"/>
-      <c r="B48" s="606"/>
-      <c r="C48" s="535"/>
-      <c r="D48" s="607"/>
-      <c r="E48" s="607"/>
-      <c r="F48" s="535"/>
-      <c r="G48" s="535"/>
-      <c r="H48" s="535"/>
+      <c r="A48" s="479"/>
+      <c r="B48" s="480"/>
+      <c r="C48" s="415"/>
+      <c r="D48" s="481"/>
+      <c r="E48" s="481"/>
+      <c r="F48" s="415"/>
+      <c r="G48" s="415"/>
+      <c r="H48" s="415"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="605"/>
-      <c r="B49" s="606"/>
-      <c r="C49" s="606"/>
-      <c r="D49" s="606"/>
-      <c r="E49" s="606"/>
-      <c r="F49" s="606"/>
-      <c r="G49" s="545"/>
-      <c r="H49" s="606"/>
+      <c r="A49" s="479"/>
+      <c r="B49" s="480"/>
+      <c r="C49" s="480"/>
+      <c r="D49" s="480"/>
+      <c r="E49" s="480"/>
+      <c r="F49" s="480"/>
+      <c r="G49" s="425"/>
+      <c r="H49" s="480"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="605"/>
-      <c r="B50" s="606"/>
-      <c r="C50" s="606"/>
-      <c r="D50" s="606"/>
-      <c r="E50" s="606"/>
-      <c r="F50" s="606"/>
-      <c r="G50" s="545"/>
-      <c r="H50" s="606"/>
+      <c r="A50" s="479"/>
+      <c r="B50" s="480"/>
+      <c r="C50" s="480"/>
+      <c r="D50" s="480"/>
+      <c r="E50" s="480"/>
+      <c r="F50" s="480"/>
+      <c r="G50" s="425"/>
+      <c r="H50" s="480"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="605"/>
-      <c r="B51" s="606"/>
-      <c r="C51" s="606"/>
-      <c r="D51" s="516"/>
-      <c r="E51" s="516"/>
-      <c r="F51" s="606"/>
-      <c r="G51" s="545"/>
-      <c r="H51" s="606"/>
+      <c r="A51" s="479"/>
+      <c r="B51" s="480"/>
+      <c r="C51" s="480"/>
+      <c r="D51" s="396"/>
+      <c r="E51" s="396"/>
+      <c r="F51" s="480"/>
+      <c r="G51" s="425"/>
+      <c r="H51" s="480"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="516"/>
-      <c r="B52" s="608"/>
-      <c r="C52" s="608"/>
-      <c r="D52" s="609"/>
-      <c r="E52" s="600"/>
-      <c r="F52" s="516"/>
-      <c r="G52" s="516"/>
-      <c r="H52" s="516"/>
-      <c r="I52" s="516"/>
-      <c r="J52" s="516"/>
+      <c r="A52" s="396"/>
+      <c r="B52" s="484"/>
+      <c r="C52" s="484"/>
+      <c r="D52" s="485"/>
+      <c r="E52" s="476"/>
+      <c r="F52" s="396"/>
+      <c r="G52" s="396"/>
+      <c r="H52" s="396"/>
+      <c r="I52" s="396"/>
+      <c r="J52" s="396"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="602"/>
-      <c r="B53" s="602"/>
-      <c r="C53" s="602"/>
-      <c r="D53" s="602"/>
-      <c r="E53" s="602"/>
-      <c r="F53" s="602"/>
-      <c r="G53" s="602"/>
-      <c r="H53" s="602"/>
-      <c r="I53" s="603"/>
-      <c r="J53" s="604"/>
+      <c r="A53" s="478"/>
+      <c r="B53" s="478"/>
+      <c r="C53" s="478"/>
+      <c r="D53" s="478"/>
+      <c r="E53" s="478"/>
+      <c r="F53" s="478"/>
+      <c r="G53" s="478"/>
+      <c r="H53" s="478"/>
+      <c r="I53" s="482"/>
+      <c r="J53" s="483"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="605"/>
-      <c r="B54" s="516"/>
-      <c r="C54" s="516"/>
-      <c r="D54" s="516"/>
-      <c r="E54" s="516"/>
-      <c r="F54" s="545"/>
-      <c r="G54" s="545"/>
-      <c r="H54" s="606"/>
-      <c r="I54" s="610"/>
-      <c r="J54" s="610"/>
+      <c r="A54" s="479"/>
+      <c r="B54" s="396"/>
+      <c r="C54" s="396"/>
+      <c r="D54" s="396"/>
+      <c r="E54" s="396"/>
+      <c r="F54" s="425"/>
+      <c r="G54" s="425"/>
+      <c r="H54" s="480"/>
+      <c r="I54" s="486"/>
+      <c r="J54" s="486"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="605"/>
-      <c r="B55" s="516"/>
-      <c r="C55" s="516"/>
-      <c r="D55" s="535"/>
-      <c r="E55" s="535"/>
-      <c r="F55" s="535"/>
-      <c r="G55" s="535"/>
-      <c r="H55" s="535"/>
-      <c r="I55" s="610"/>
-      <c r="J55" s="610"/>
+      <c r="A55" s="479"/>
+      <c r="B55" s="396"/>
+      <c r="C55" s="396"/>
+      <c r="D55" s="415"/>
+      <c r="E55" s="415"/>
+      <c r="F55" s="415"/>
+      <c r="G55" s="415"/>
+      <c r="H55" s="415"/>
+      <c r="I55" s="486"/>
+      <c r="J55" s="486"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="516"/>
-      <c r="B56" s="516"/>
-      <c r="C56" s="516"/>
-      <c r="D56" s="516"/>
-      <c r="E56" s="516"/>
-      <c r="F56" s="516"/>
-      <c r="G56" s="516"/>
-      <c r="H56" s="516"/>
+      <c r="A56" s="396"/>
+      <c r="B56" s="396"/>
+      <c r="C56" s="396"/>
+      <c r="D56" s="396"/>
+      <c r="E56" s="396"/>
+      <c r="F56" s="396"/>
+      <c r="G56" s="396"/>
+      <c r="H56" s="396"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="603"/>
-      <c r="C61" s="604"/>
+      <c r="B61" s="482"/>
+      <c r="C61" s="483"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="603"/>
-      <c r="C68" s="604"/>
+      <c r="B68" s="482"/>
+      <c r="C68" s="483"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="B52:D52"/>
@@ -7165,12 +7173,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -7227,47 +7229,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="478" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="484" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="485"/>
-      <c r="K2" s="488">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="489"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="500"/>
-      <c r="Q2" s="500"/>
+      <c r="P2" s="600"/>
+      <c r="Q2" s="600"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="481" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="574" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="491"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7278,9 +7280,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="172"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="477"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7299,22 +7301,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="172"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="588"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7325,22 +7327,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="462"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="585"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="465"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="588"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7351,27 +7353,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="172"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="405">
+      <c r="C7" s="589"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="466"/>
-      <c r="K7" s="393">
+      <c r="J7" s="589"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7757,6 +7759,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7764,17 +7777,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7840,47 +7842,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="478" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="484" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="485"/>
-      <c r="K2" s="488">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="489"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
+      <c r="P2" s="601"/>
+      <c r="Q2" s="601"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="481" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="574" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="491"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -7891,9 +7893,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="477"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7912,22 +7914,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="588"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -7938,22 +7940,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="462"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="585"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="465"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="588"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -7964,27 +7966,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="405">
+      <c r="C7" s="589"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="466"/>
-      <c r="K7" s="393">
+      <c r="J7" s="589"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8313,12 +8315,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="501" t="s">
+      <c r="B18" s="602" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="502"/>
-      <c r="D18" s="502"/>
-      <c r="E18" s="503"/>
+      <c r="C18" s="603"/>
+      <c r="D18" s="603"/>
+      <c r="E18" s="604"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8362,14 +8364,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8381,6 +8375,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8466,47 +8468,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="478" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="484" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="485"/>
-      <c r="K2" s="488">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="489"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="505"/>
-      <c r="Q2" s="505"/>
+      <c r="P2" s="605"/>
+      <c r="Q2" s="605"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="481" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="574" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="491"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8517,9 +8519,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="477"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8538,22 +8540,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="588"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8564,22 +8566,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="462"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="585"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="465"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="588"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8590,27 +8592,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="405">
+      <c r="C7" s="589"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="466"/>
-      <c r="K7" s="393">
+      <c r="J7" s="589"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -8991,6 +8993,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8998,17 +9011,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9074,47 +9076,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="478" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="484" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="485"/>
-      <c r="K2" s="507">
+      <c r="J2" s="578"/>
+      <c r="K2" s="606">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="508"/>
+      <c r="L2" s="607"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="506"/>
-      <c r="Q2" s="506"/>
+      <c r="P2" s="610"/>
+      <c r="Q2" s="610"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="481" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="574" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="509"/>
-      <c r="L3" s="510"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="608"/>
+      <c r="L3" s="609"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9125,9 +9127,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="477"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9146,22 +9148,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="588"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9172,22 +9174,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="462"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="585"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="465"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="588"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9198,27 +9200,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="405">
+      <c r="C7" s="589"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="466"/>
-      <c r="K7" s="393">
+      <c r="J7" s="589"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9491,6 +9493,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -9507,8 +9511,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9550,25 +9552,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="395" t="s">
+      <c r="A1" s="497" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
+      <c r="B1" s="501"/>
+      <c r="C1" s="501"/>
+      <c r="D1" s="501"/>
+      <c r="E1" s="501"/>
       <c r="G1" s="374" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="396" t="s">
+      <c r="A2" s="498" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="398"/>
+      <c r="B2" s="499"/>
+      <c r="C2" s="499"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="500"/>
       <c r="G2" s="373" t="s">
         <v>81</v>
       </c>
@@ -9579,45 +9581,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="400" t="s">
+      <c r="A4" s="502" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="401"/>
-      <c r="C4" s="401"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="401"/>
+      <c r="B4" s="503"/>
+      <c r="C4" s="503"/>
+      <c r="D4" s="503"/>
+      <c r="E4" s="503"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="402" t="s">
+      <c r="A5" s="504" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="403"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="403"/>
-      <c r="E5" s="404"/>
+      <c r="B5" s="505"/>
+      <c r="C5" s="505"/>
+      <c r="D5" s="505"/>
+      <c r="E5" s="506"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="395" t="s">
+      <c r="A7" s="497" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="399"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
+      <c r="B7" s="501"/>
+      <c r="C7" s="501"/>
+      <c r="D7" s="501"/>
+      <c r="E7" s="501"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="405"/>
-      <c r="B8" s="406"/>
-      <c r="C8" s="406"/>
-      <c r="D8" s="406"/>
-      <c r="E8" s="407"/>
+      <c r="A8" s="507"/>
+      <c r="B8" s="508"/>
+      <c r="C8" s="508"/>
+      <c r="D8" s="508"/>
+      <c r="E8" s="509"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="395" t="s">
+      <c r="A10" s="497" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="395"/>
+      <c r="B10" s="497"/>
       <c r="C10" s="375"/>
       <c r="D10" s="383" t="s">
         <v>96</v>
@@ -9628,33 +9630,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="393"/>
-      <c r="B11" s="394"/>
+      <c r="A11" s="495"/>
+      <c r="B11" s="496"/>
       <c r="D11" s="382">
         <v>43741</v>
       </c>
-      <c r="F11" s="408" t="s">
+      <c r="F11" s="493" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="408"/>
-      <c r="H11" s="408"/>
-      <c r="I11" s="408"/>
-      <c r="J11" s="409" t="s">
+      <c r="G11" s="493"/>
+      <c r="H11" s="493"/>
+      <c r="I11" s="493"/>
+      <c r="J11" s="494" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="409"/>
+      <c r="K11" s="494"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="408" t="s">
+      <c r="F12" s="493" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="408"/>
-      <c r="H12" s="408"/>
-      <c r="I12" s="408"/>
-      <c r="J12" s="409" t="s">
+      <c r="G12" s="493"/>
+      <c r="H12" s="493"/>
+      <c r="I12" s="493"/>
+      <c r="J12" s="494" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="409"/>
+      <c r="K12" s="494"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="376" t="s">
@@ -9666,16 +9668,16 @@
       <c r="C13" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="408" t="s">
+      <c r="F13" s="493" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="408"/>
-      <c r="H13" s="408"/>
-      <c r="I13" s="408"/>
-      <c r="J13" s="409" t="s">
+      <c r="G13" s="493"/>
+      <c r="H13" s="493"/>
+      <c r="I13" s="493"/>
+      <c r="J13" s="494" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="409"/>
+      <c r="K13" s="494"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="378" t="s">
@@ -9833,12 +9835,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
@@ -9847,6 +9843,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -9922,47 +9924,47 @@
       <c r="J8" s="320"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="416" t="s">
+      <c r="A11" s="518" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="416"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="416"/>
-      <c r="E11" s="416"/>
-      <c r="F11" s="416"/>
-      <c r="G11" s="416"/>
-      <c r="H11" s="416"/>
-      <c r="I11" s="416"/>
-      <c r="J11" s="416"/>
+      <c r="B11" s="518"/>
+      <c r="C11" s="518"/>
+      <c r="D11" s="518"/>
+      <c r="E11" s="518"/>
+      <c r="F11" s="518"/>
+      <c r="G11" s="518"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="518"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="415" t="s">
+      <c r="A12" s="517" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="415"/>
-      <c r="C12" s="415"/>
-      <c r="D12" s="415"/>
-      <c r="E12" s="415"/>
-      <c r="F12" s="415"/>
-      <c r="G12" s="415"/>
-      <c r="H12" s="415"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="415"/>
+      <c r="B12" s="517"/>
+      <c r="C12" s="517"/>
+      <c r="D12" s="517"/>
+      <c r="E12" s="517"/>
+      <c r="F12" s="517"/>
+      <c r="G12" s="517"/>
+      <c r="H12" s="517"/>
+      <c r="I12" s="517"/>
+      <c r="J12" s="517"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="417" t="str">
+      <c r="A13" s="519" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="B13" s="416"/>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
-      <c r="E13" s="416"/>
-      <c r="F13" s="416"/>
-      <c r="G13" s="416"/>
-      <c r="H13" s="416"/>
-      <c r="I13" s="416"/>
-      <c r="J13" s="416"/>
+      <c r="B13" s="518"/>
+      <c r="C13" s="518"/>
+      <c r="D13" s="518"/>
+      <c r="E13" s="518"/>
+      <c r="F13" s="518"/>
+      <c r="G13" s="518"/>
+      <c r="H13" s="518"/>
+      <c r="I13" s="518"/>
+      <c r="J13" s="518"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
@@ -10087,310 +10089,310 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="418" t="s">
+      <c r="A22" s="515" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="418" t="s">
+      <c r="B22" s="515" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="418"/>
-      <c r="D22" s="418"/>
-      <c r="E22" s="418" t="s">
+      <c r="C22" s="515"/>
+      <c r="D22" s="515"/>
+      <c r="E22" s="515" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="418"/>
-      <c r="G22" s="419" t="s">
+      <c r="F22" s="515"/>
+      <c r="G22" s="516" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="418" t="s">
+      <c r="H22" s="515" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="418"/>
-      <c r="J22" s="418"/>
+      <c r="I22" s="515"/>
+      <c r="J22" s="515"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="418"/>
-      <c r="B23" s="418"/>
-      <c r="C23" s="418"/>
-      <c r="D23" s="418"/>
-      <c r="E23" s="418"/>
-      <c r="F23" s="418"/>
-      <c r="G23" s="419"/>
-      <c r="H23" s="418"/>
-      <c r="I23" s="418"/>
-      <c r="J23" s="418"/>
+      <c r="A23" s="515"/>
+      <c r="B23" s="515"/>
+      <c r="C23" s="515"/>
+      <c r="D23" s="515"/>
+      <c r="E23" s="515"/>
+      <c r="F23" s="515"/>
+      <c r="G23" s="516"/>
+      <c r="H23" s="515"/>
+      <c r="I23" s="515"/>
+      <c r="J23" s="515"/>
     </row>
     <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="386">
         <v>1</v>
       </c>
-      <c r="B24" s="410" t="s">
+      <c r="B24" s="510" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="411"/>
-      <c r="D24" s="412"/>
-      <c r="E24" s="413" t="str">
+      <c r="C24" s="511"/>
+      <c r="D24" s="512"/>
+      <c r="E24" s="513" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F24" s="413"/>
+      <c r="F24" s="513"/>
       <c r="G24" s="318">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="414"/>
-      <c r="I24" s="414"/>
-      <c r="J24" s="414"/>
+      <c r="H24" s="514"/>
+      <c r="I24" s="514"/>
+      <c r="J24" s="514"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="410" t="s">
+      <c r="B25" s="510" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="411"/>
-      <c r="D25" s="412"/>
-      <c r="E25" s="413" t="str">
+      <c r="C25" s="511"/>
+      <c r="D25" s="512"/>
+      <c r="E25" s="513" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F25" s="413"/>
+      <c r="F25" s="513"/>
       <c r="G25" s="318">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H25" s="414"/>
-      <c r="I25" s="414"/>
-      <c r="J25" s="414"/>
+      <c r="H25" s="514"/>
+      <c r="I25" s="514"/>
+      <c r="J25" s="514"/>
     </row>
     <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="386">
         <f t="shared" ref="A26:A35" si="0">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="410" t="s">
+      <c r="B26" s="510" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="411"/>
-      <c r="D26" s="412"/>
-      <c r="E26" s="413" t="str">
+      <c r="C26" s="511"/>
+      <c r="D26" s="512"/>
+      <c r="E26" s="513" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F26" s="413"/>
+      <c r="F26" s="513"/>
       <c r="G26" s="318">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H26" s="414"/>
-      <c r="I26" s="414"/>
-      <c r="J26" s="414"/>
+      <c r="H26" s="514"/>
+      <c r="I26" s="514"/>
+      <c r="J26" s="514"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B27" s="410" t="s">
+      <c r="B27" s="510" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="411"/>
-      <c r="D27" s="412"/>
-      <c r="E27" s="413" t="str">
+      <c r="C27" s="511"/>
+      <c r="D27" s="512"/>
+      <c r="E27" s="513" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F27" s="413"/>
+      <c r="F27" s="513"/>
       <c r="G27" s="318">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H27" s="414"/>
-      <c r="I27" s="414"/>
-      <c r="J27" s="414"/>
+      <c r="H27" s="514"/>
+      <c r="I27" s="514"/>
+      <c r="J27" s="514"/>
     </row>
     <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B28" s="410" t="s">
+      <c r="B28" s="510" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="411"/>
-      <c r="D28" s="412"/>
-      <c r="E28" s="413" t="str">
+      <c r="C28" s="511"/>
+      <c r="D28" s="512"/>
+      <c r="E28" s="513" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F28" s="413"/>
+      <c r="F28" s="513"/>
       <c r="G28" s="318">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H28" s="414"/>
-      <c r="I28" s="414"/>
-      <c r="J28" s="414"/>
+      <c r="H28" s="514"/>
+      <c r="I28" s="514"/>
+      <c r="J28" s="514"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B29" s="410" t="s">
+      <c r="B29" s="510" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="411"/>
-      <c r="D29" s="412"/>
-      <c r="E29" s="413" t="str">
+      <c r="C29" s="511"/>
+      <c r="D29" s="512"/>
+      <c r="E29" s="513" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F29" s="413"/>
+      <c r="F29" s="513"/>
       <c r="G29" s="318">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H29" s="414"/>
-      <c r="I29" s="414"/>
-      <c r="J29" s="414"/>
+      <c r="H29" s="514"/>
+      <c r="I29" s="514"/>
+      <c r="J29" s="514"/>
     </row>
     <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B30" s="410" t="s">
+      <c r="B30" s="510" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="411"/>
-      <c r="D30" s="412"/>
-      <c r="E30" s="413" t="str">
+      <c r="C30" s="511"/>
+      <c r="D30" s="512"/>
+      <c r="E30" s="513" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F30" s="413"/>
+      <c r="F30" s="513"/>
       <c r="G30" s="318">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H30" s="414"/>
-      <c r="I30" s="414"/>
-      <c r="J30" s="414"/>
+      <c r="H30" s="514"/>
+      <c r="I30" s="514"/>
+      <c r="J30" s="514"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B31" s="410" t="s">
+      <c r="B31" s="510" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="411"/>
-      <c r="D31" s="412"/>
-      <c r="E31" s="413" t="str">
+      <c r="C31" s="511"/>
+      <c r="D31" s="512"/>
+      <c r="E31" s="513" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F31" s="413"/>
+      <c r="F31" s="513"/>
       <c r="G31" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H31" s="414"/>
-      <c r="I31" s="414"/>
-      <c r="J31" s="414"/>
+      <c r="H31" s="514"/>
+      <c r="I31" s="514"/>
+      <c r="J31" s="514"/>
     </row>
     <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B32" s="410" t="s">
+      <c r="B32" s="510" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="411"/>
-      <c r="D32" s="412"/>
-      <c r="E32" s="413" t="str">
+      <c r="C32" s="511"/>
+      <c r="D32" s="512"/>
+      <c r="E32" s="513" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F32" s="413"/>
+      <c r="F32" s="513"/>
       <c r="G32" s="318">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H32" s="414"/>
-      <c r="I32" s="414"/>
-      <c r="J32" s="414"/>
+      <c r="H32" s="514"/>
+      <c r="I32" s="514"/>
+      <c r="J32" s="514"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B33" s="410" t="s">
+      <c r="B33" s="510" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="411"/>
-      <c r="D33" s="412"/>
-      <c r="E33" s="413" t="str">
+      <c r="C33" s="511"/>
+      <c r="D33" s="512"/>
+      <c r="E33" s="513" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F33" s="413"/>
+      <c r="F33" s="513"/>
       <c r="G33" s="318">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H33" s="414"/>
-      <c r="I33" s="414"/>
-      <c r="J33" s="414"/>
+      <c r="H33" s="514"/>
+      <c r="I33" s="514"/>
+      <c r="J33" s="514"/>
     </row>
     <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B34" s="410" t="s">
+      <c r="B34" s="510" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="411"/>
-      <c r="D34" s="412"/>
-      <c r="E34" s="413"/>
-      <c r="F34" s="413"/>
+      <c r="C34" s="511"/>
+      <c r="D34" s="512"/>
+      <c r="E34" s="513"/>
+      <c r="F34" s="513"/>
       <c r="G34" s="388">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H34" s="414"/>
-      <c r="I34" s="414"/>
-      <c r="J34" s="414"/>
+      <c r="H34" s="514"/>
+      <c r="I34" s="514"/>
+      <c r="J34" s="514"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B35" s="410" t="s">
+      <c r="B35" s="510" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="411"/>
-      <c r="D35" s="412"/>
-      <c r="E35" s="413" t="str">
+      <c r="C35" s="511"/>
+      <c r="D35" s="512"/>
+      <c r="E35" s="513" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F35" s="413"/>
+      <c r="F35" s="513"/>
       <c r="G35" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H35" s="414"/>
-      <c r="I35" s="414"/>
-      <c r="J35" s="414"/>
+      <c r="H35" s="514"/>
+      <c r="I35" s="514"/>
+      <c r="J35" s="514"/>
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="313"/>
@@ -10519,28 +10521,12 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10557,12 +10543,28 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10617,47 +10619,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="438"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="447" t="s">
+      <c r="B2" s="520"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="522"/>
+      <c r="E2" s="529" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="448"/>
-      <c r="G2" s="448"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="454" t="s">
+      <c r="F2" s="530"/>
+      <c r="G2" s="530"/>
+      <c r="H2" s="531"/>
+      <c r="I2" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="455"/>
-      <c r="K2" s="458">
+      <c r="J2" s="537"/>
+      <c r="K2" s="540">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="459"/>
+      <c r="L2" s="541"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="450"/>
-      <c r="Q2" s="450"/>
+      <c r="P2" s="532"/>
+      <c r="Q2" s="532"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="441"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="451" t="s">
+      <c r="B3" s="523"/>
+      <c r="C3" s="524"/>
+      <c r="D3" s="525"/>
+      <c r="E3" s="533" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="452"/>
-      <c r="G3" s="452"/>
-      <c r="H3" s="453"/>
-      <c r="I3" s="456"/>
-      <c r="J3" s="457"/>
-      <c r="K3" s="460"/>
-      <c r="L3" s="461"/>
+      <c r="F3" s="534"/>
+      <c r="G3" s="534"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="538"/>
+      <c r="J3" s="539"/>
+      <c r="K3" s="542"/>
+      <c r="L3" s="543"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10668,9 +10670,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="444"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="446"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="528"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10689,22 +10691,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="424"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="548"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="425"/>
-      <c r="J5" s="426"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10715,22 +10717,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="427"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="551"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="425"/>
-      <c r="J6" s="426"/>
-      <c r="K6" s="403"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10741,27 +10743,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="431"/>
-      <c r="D7" s="405">
+      <c r="C7" s="555"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="430" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="554" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="434"/>
-      <c r="K7" s="393">
+      <c r="J7" s="558"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11255,12 +11257,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="435" t="s">
+      <c r="B23" s="559" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="437"/>
+      <c r="C23" s="560"/>
+      <c r="D23" s="560"/>
+      <c r="E23" s="561"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -11282,12 +11284,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="420" t="s">
+      <c r="B24" s="544" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="421"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="422"/>
+      <c r="C24" s="545"/>
+      <c r="D24" s="545"/>
+      <c r="E24" s="546"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11331,12 +11333,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11351,6 +11347,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11416,50 +11418,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="469">
+      <c r="B2" s="562">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="470"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="478" t="s">
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="484" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="485"/>
-      <c r="K2" s="488">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="489"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="450"/>
-      <c r="Q2" s="450"/>
+      <c r="P2" s="532"/>
+      <c r="Q2" s="532"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="481" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="574" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="491"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11470,9 +11472,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="477"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11491,22 +11493,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="588"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11517,22 +11519,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="462"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="585"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="465"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="588"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11543,27 +11545,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="405">
+      <c r="C7" s="589"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="466"/>
-      <c r="K7" s="393">
+      <c r="J7" s="589"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11760,13 +11762,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="435" t="s">
+      <c r="B14" s="559" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="436"/>
-      <c r="D14" s="436"/>
-      <c r="E14" s="436"/>
-      <c r="F14" s="468"/>
+      <c r="C14" s="560"/>
+      <c r="D14" s="560"/>
+      <c r="E14" s="560"/>
+      <c r="F14" s="591"/>
       <c r="G14" s="56" t="s">
         <v>79</v>
       </c>
@@ -11785,12 +11787,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="420" t="s">
+      <c r="B15" s="544" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="421"/>
-      <c r="D15" s="421"/>
-      <c r="E15" s="422"/>
+      <c r="C15" s="545"/>
+      <c r="D15" s="545"/>
+      <c r="E15" s="546"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -11841,12 +11843,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -11861,6 +11857,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -11934,47 +11936,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="438"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="447" t="s">
+      <c r="B2" s="520"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="522"/>
+      <c r="E2" s="529" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="448"/>
-      <c r="G2" s="448"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="454" t="s">
+      <c r="F2" s="530"/>
+      <c r="G2" s="530"/>
+      <c r="H2" s="531"/>
+      <c r="I2" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="455"/>
-      <c r="K2" s="458">
+      <c r="J2" s="537"/>
+      <c r="K2" s="540">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="459"/>
+      <c r="L2" s="541"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="450"/>
-      <c r="Q2" s="450"/>
+      <c r="P2" s="532"/>
+      <c r="Q2" s="532"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="441"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="451" t="s">
+      <c r="B3" s="523"/>
+      <c r="C3" s="524"/>
+      <c r="D3" s="525"/>
+      <c r="E3" s="533" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="452"/>
-      <c r="G3" s="452"/>
-      <c r="H3" s="453"/>
-      <c r="I3" s="456"/>
-      <c r="J3" s="457"/>
-      <c r="K3" s="460"/>
-      <c r="L3" s="461"/>
+      <c r="F3" s="534"/>
+      <c r="G3" s="534"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="538"/>
+      <c r="J3" s="539"/>
+      <c r="K3" s="542"/>
+      <c r="L3" s="543"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11985,9 +11987,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="444"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="446"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="528"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12006,22 +12008,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="424"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="548"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="425"/>
-      <c r="J5" s="426"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12032,22 +12034,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="427"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="551"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="425"/>
-      <c r="J6" s="426"/>
-      <c r="K6" s="403"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12058,27 +12060,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="431"/>
-      <c r="D7" s="405">
+      <c r="C7" s="555"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="430" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="554" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="434"/>
-      <c r="K7" s="393">
+      <c r="J7" s="558"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12561,6 +12563,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -12577,8 +12581,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12646,47 +12648,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="438"/>
-      <c r="C2" s="439"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="447" t="s">
+      <c r="B2" s="520"/>
+      <c r="C2" s="521"/>
+      <c r="D2" s="522"/>
+      <c r="E2" s="529" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="448"/>
-      <c r="G2" s="448"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="454" t="s">
+      <c r="F2" s="530"/>
+      <c r="G2" s="530"/>
+      <c r="H2" s="531"/>
+      <c r="I2" s="536" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="455"/>
-      <c r="K2" s="458">
+      <c r="J2" s="537"/>
+      <c r="K2" s="540">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="459"/>
+      <c r="L2" s="541"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="492"/>
-      <c r="Q2" s="492"/>
+      <c r="P2" s="592"/>
+      <c r="Q2" s="592"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="441"/>
-      <c r="C3" s="442"/>
-      <c r="D3" s="443"/>
-      <c r="E3" s="451" t="s">
+      <c r="B3" s="523"/>
+      <c r="C3" s="524"/>
+      <c r="D3" s="525"/>
+      <c r="E3" s="533" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="452"/>
-      <c r="G3" s="452"/>
-      <c r="H3" s="453"/>
-      <c r="I3" s="456"/>
-      <c r="J3" s="457"/>
-      <c r="K3" s="460"/>
-      <c r="L3" s="461"/>
+      <c r="F3" s="534"/>
+      <c r="G3" s="534"/>
+      <c r="H3" s="535"/>
+      <c r="I3" s="538"/>
+      <c r="J3" s="539"/>
+      <c r="K3" s="542"/>
+      <c r="L3" s="543"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12697,9 +12699,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="444"/>
-      <c r="C4" s="445"/>
-      <c r="D4" s="446"/>
+      <c r="B4" s="526"/>
+      <c r="C4" s="527"/>
+      <c r="D4" s="528"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12718,22 +12720,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="424"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="548"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="425"/>
-      <c r="J5" s="426"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="549"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="505"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -12744,22 +12746,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="427"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="551"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="425"/>
-      <c r="J6" s="426"/>
-      <c r="K6" s="403"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="549"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="505"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -12770,27 +12772,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="431"/>
-      <c r="D7" s="405">
+      <c r="C7" s="555"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="430" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="554" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="434"/>
-      <c r="K7" s="393">
+      <c r="J7" s="558"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13075,17 +13077,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13093,6 +13084,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13164,60 +13166,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="478" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="484" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="485"/>
-      <c r="K2" s="488">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="489"/>
-      <c r="M2" s="493"/>
-      <c r="N2" s="494"/>
-      <c r="O2" s="494"/>
-      <c r="P2" s="494"/>
-      <c r="Q2" s="494"/>
-      <c r="R2" s="495"/>
+      <c r="L2" s="582"/>
+      <c r="M2" s="593"/>
+      <c r="N2" s="594"/>
+      <c r="O2" s="594"/>
+      <c r="P2" s="594"/>
+      <c r="Q2" s="594"/>
+      <c r="R2" s="595"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="481" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="574" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="491"/>
-      <c r="M3" s="496"/>
-      <c r="N3" s="497"/>
-      <c r="O3" s="497"/>
-      <c r="P3" s="497"/>
-      <c r="Q3" s="497"/>
-      <c r="R3" s="498"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
+      <c r="M3" s="596"/>
+      <c r="N3" s="597"/>
+      <c r="O3" s="597"/>
+      <c r="P3" s="597"/>
+      <c r="Q3" s="597"/>
+      <c r="R3" s="598"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="477"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13226,95 +13228,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="496"/>
-      <c r="N4" s="497"/>
-      <c r="O4" s="497"/>
-      <c r="P4" s="497"/>
-      <c r="Q4" s="497"/>
-      <c r="R4" s="498"/>
+      <c r="M4" s="596"/>
+      <c r="N4" s="597"/>
+      <c r="O4" s="597"/>
+      <c r="P4" s="597"/>
+      <c r="Q4" s="597"/>
+      <c r="R4" s="598"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="404"/>
-      <c r="M5" s="496"/>
-      <c r="N5" s="497"/>
-      <c r="O5" s="497"/>
-      <c r="P5" s="497"/>
-      <c r="Q5" s="497"/>
-      <c r="R5" s="498"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="588"/>
+      <c r="L5" s="506"/>
+      <c r="M5" s="596"/>
+      <c r="N5" s="597"/>
+      <c r="O5" s="597"/>
+      <c r="P5" s="597"/>
+      <c r="Q5" s="597"/>
+      <c r="R5" s="598"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="462"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="585"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="465"/>
-      <c r="L6" s="404"/>
-      <c r="M6" s="496"/>
-      <c r="N6" s="497"/>
-      <c r="O6" s="497"/>
-      <c r="P6" s="497"/>
-      <c r="Q6" s="497"/>
-      <c r="R6" s="498"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="588"/>
+      <c r="L6" s="506"/>
+      <c r="M6" s="596"/>
+      <c r="N6" s="597"/>
+      <c r="O6" s="597"/>
+      <c r="P6" s="597"/>
+      <c r="Q6" s="597"/>
+      <c r="R6" s="598"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="405">
+      <c r="C7" s="589"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="466"/>
-      <c r="K7" s="393">
+      <c r="J7" s="589"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
-      <c r="M7" s="496"/>
-      <c r="N7" s="497"/>
-      <c r="O7" s="497"/>
-      <c r="P7" s="497"/>
-      <c r="Q7" s="497"/>
-      <c r="R7" s="498"/>
+      <c r="L7" s="496"/>
+      <c r="M7" s="596"/>
+      <c r="N7" s="597"/>
+      <c r="O7" s="597"/>
+      <c r="P7" s="597"/>
+      <c r="Q7" s="597"/>
+      <c r="R7" s="598"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13736,12 +13738,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="420" t="s">
+      <c r="B21" s="544" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="421"/>
-      <c r="D21" s="421"/>
-      <c r="E21" s="422"/>
+      <c r="C21" s="545"/>
+      <c r="D21" s="545"/>
+      <c r="E21" s="546"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -13787,6 +13789,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -13799,13 +13808,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -13870,47 +13872,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="478" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="484" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="577" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="485"/>
-      <c r="K2" s="488">
+      <c r="J2" s="578"/>
+      <c r="K2" s="581">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="489"/>
+      <c r="L2" s="582"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="499"/>
-      <c r="Q2" s="499"/>
+      <c r="P2" s="599"/>
+      <c r="Q2" s="599"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="472"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="481" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="574" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="482"/>
-      <c r="G3" s="482"/>
-      <c r="H3" s="483"/>
-      <c r="I3" s="486"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="491"/>
+      <c r="F3" s="575"/>
+      <c r="G3" s="575"/>
+      <c r="H3" s="576"/>
+      <c r="I3" s="579"/>
+      <c r="J3" s="580"/>
+      <c r="K3" s="583"/>
+      <c r="L3" s="584"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13921,9 +13923,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="475"/>
-      <c r="C4" s="476"/>
-      <c r="D4" s="477"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13942,22 +13944,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="504" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="463"/>
-      <c r="J5" s="464"/>
-      <c r="K5" s="465"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
+      <c r="H5" s="506"/>
+      <c r="I5" s="586"/>
+      <c r="J5" s="587"/>
+      <c r="K5" s="588"/>
+      <c r="L5" s="506"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13968,22 +13970,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="423" t="s">
+      <c r="B6" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="462"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="585"/>
+      <c r="D6" s="498" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="464"/>
-      <c r="K6" s="465"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="552"/>
+      <c r="F6" s="552"/>
+      <c r="G6" s="552"/>
+      <c r="H6" s="553"/>
+      <c r="I6" s="586"/>
+      <c r="J6" s="587"/>
+      <c r="K6" s="588"/>
+      <c r="L6" s="506"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13994,27 +13996,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="430" t="s">
+      <c r="B7" s="554" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="405">
+      <c r="C7" s="589"/>
+      <c r="D7" s="507">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="432"/>
-      <c r="F7" s="432"/>
-      <c r="G7" s="432"/>
-      <c r="H7" s="433"/>
-      <c r="I7" s="467" t="s">
+      <c r="E7" s="556"/>
+      <c r="F7" s="556"/>
+      <c r="G7" s="556"/>
+      <c r="H7" s="557"/>
+      <c r="I7" s="590" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="466"/>
-      <c r="K7" s="393">
+      <c r="J7" s="589"/>
+      <c r="K7" s="495">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="496"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14277,12 +14279,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="420" t="s">
+      <c r="B16" s="544" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="421"/>
-      <c r="D16" s="421"/>
-      <c r="E16" s="422"/>
+      <c r="C16" s="545"/>
+      <c r="D16" s="545"/>
+      <c r="E16" s="546"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -14328,6 +14330,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14338,15 +14349,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
@@ -3540,6 +3540,12 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3551,12 +3557,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3889,6 +3889,9 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3899,9 +3902,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6163,8 +6163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6184,49 +6184,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="489" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
-      <c r="F1" s="487"/>
-      <c r="G1" s="487"/>
-      <c r="H1" s="487"/>
-      <c r="I1" s="487"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
+      <c r="F1" s="489"/>
+      <c r="G1" s="489"/>
+      <c r="H1" s="489"/>
+      <c r="I1" s="489"/>
       <c r="J1" s="393"/>
       <c r="K1" s="393"/>
       <c r="L1" s="393"/>
     </row>
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="487" t="s">
+      <c r="A2" s="489" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="487"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="487"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="489"/>
+      <c r="F2" s="489"/>
+      <c r="G2" s="489"/>
+      <c r="H2" s="489"/>
+      <c r="I2" s="489"/>
       <c r="J2" s="394"/>
       <c r="K2" s="394"/>
       <c r="L2" s="394"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="488" t="s">
+      <c r="A3" s="490" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="488"/>
-      <c r="C3" s="488"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
+      <c r="B3" s="490"/>
+      <c r="C3" s="490"/>
+      <c r="D3" s="490"/>
+      <c r="E3" s="490"/>
+      <c r="F3" s="490"/>
+      <c r="G3" s="490"/>
+      <c r="H3" s="490"/>
+      <c r="I3" s="490"/>
       <c r="K3" s="395"/>
       <c r="L3" s="395"/>
       <c r="M3" s="396"/>
@@ -6710,22 +6710,32 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="441"/>
-      <c r="B22" s="442"/>
-      <c r="C22" s="442"/>
-      <c r="D22" s="442"/>
-      <c r="E22" s="443"/>
-      <c r="F22" s="443"/>
+      <c r="B22" s="442">
+        <v>43818</v>
+      </c>
+      <c r="C22" s="442">
+        <v>43825</v>
+      </c>
+      <c r="D22" s="442">
+        <v>43833</v>
+      </c>
+      <c r="E22" s="443">
+        <v>1576190</v>
+      </c>
+      <c r="F22" s="443">
+        <v>1715013</v>
+      </c>
       <c r="G22" s="437">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>0.10208410714285714</v>
       </c>
       <c r="H22" s="444">
         <f>H21-F22</f>
-        <v>14065980</v>
+        <v>12350967</v>
       </c>
       <c r="I22" s="445">
         <f>I21-G22</f>
-        <v>0.83726071428571425</v>
+        <v>0.73517660714285715</v>
       </c>
       <c r="J22" s="396"/>
       <c r="K22" s="396"/>
@@ -6866,23 +6876,23 @@
       <c r="D32" s="466"/>
       <c r="E32" s="467">
         <f>SUM(E21:E31)</f>
-        <v>2527011</v>
+        <v>4103201</v>
       </c>
       <c r="F32" s="468">
         <f>SUM(F21:F31)</f>
-        <v>2734020</v>
+        <v>4449033</v>
       </c>
       <c r="G32" s="469">
         <f>SUM(G21:G31)</f>
-        <v>0.16273928571428573</v>
+        <v>0.26482339285714285</v>
       </c>
       <c r="H32" s="470">
         <f>A21-F32</f>
-        <v>14065980</v>
+        <v>12350967</v>
       </c>
       <c r="I32" s="471">
         <f>1-G32</f>
-        <v>0.83726071428571425</v>
+        <v>0.73517660714285715</v>
       </c>
       <c r="J32" s="472"/>
       <c r="K32" s="472"/>
@@ -6901,12 +6911,12 @@
       <c r="J35" s="396"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="489" t="s">
+      <c r="A36" s="491" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="489"/>
-      <c r="C36" s="489"/>
-      <c r="D36" s="489"/>
+      <c r="B36" s="491"/>
+      <c r="C36" s="491"/>
+      <c r="D36" s="491"/>
       <c r="E36" s="396"/>
       <c r="F36" s="396"/>
       <c r="G36" s="396"/>
@@ -6915,10 +6925,10 @@
       <c r="J36" s="396"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="490" t="s">
+      <c r="A37" s="492" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="490"/>
+      <c r="B37" s="492"/>
       <c r="C37" s="473" t="s">
         <v>151</v>
       </c>
@@ -6933,18 +6943,18 @@
       <c r="J37" s="396"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="491">
+      <c r="A38" s="487">
         <f>A21-F32</f>
-        <v>14065980</v>
-      </c>
-      <c r="B38" s="492"/>
+        <v>12350967</v>
+      </c>
+      <c r="B38" s="488"/>
       <c r="C38" s="474">
         <f>1-G32</f>
-        <v>0.83726071428571425</v>
+        <v>0.73517660714285715</v>
       </c>
       <c r="D38" s="475">
         <f>(C38/0.8)*100</f>
-        <v>104.65758928571427</v>
+        <v>91.897075892857146</v>
       </c>
       <c r="E38" s="476" t="s">
         <v>153</v>
@@ -7174,8 +7184,9 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="8" man="1"/>
   </rowBreaks>
@@ -9089,16 +9100,16 @@
         <v>11</v>
       </c>
       <c r="J2" s="578"/>
-      <c r="K2" s="606">
+      <c r="K2" s="607">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="607"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="610"/>
-      <c r="Q2" s="610"/>
+      <c r="P2" s="606"/>
+      <c r="Q2" s="606"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
@@ -9115,8 +9126,8 @@
       <c r="H3" s="576"/>
       <c r="I3" s="579"/>
       <c r="J3" s="580"/>
-      <c r="K3" s="608"/>
-      <c r="L3" s="609"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9493,6 +9504,10 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9507,10 +9522,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -12563,9 +12574,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12581,6 +12589,9 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432"/>
+    <workbookView xWindow="14400" yWindow="-15" windowWidth="14445" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="156">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -503,18 +503,25 @@
   </si>
   <si>
     <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>стоит</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 180 гр.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2150,7 +2157,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="611">
+  <cellXfs count="622">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3462,16 +3469,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3481,22 +3484,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3533,6 +3532,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3540,30 +3608,6 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3605,6 +3649,12 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3620,92 +3670,20 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3757,73 +3735,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3847,6 +3828,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3873,9 +3923,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3884,6 +3931,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6164,74 +6214,74 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="489" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="495" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
-      <c r="F1" s="489"/>
-      <c r="G1" s="489"/>
-      <c r="H1" s="489"/>
-      <c r="I1" s="489"/>
+      <c r="B1" s="495"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
+      <c r="E1" s="495"/>
+      <c r="F1" s="495"/>
+      <c r="G1" s="495"/>
+      <c r="H1" s="495"/>
+      <c r="I1" s="495"/>
       <c r="J1" s="393"/>
       <c r="K1" s="393"/>
       <c r="L1" s="393"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="489" t="s">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="495" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
-      <c r="G2" s="489"/>
-      <c r="H2" s="489"/>
-      <c r="I2" s="489"/>
+      <c r="B2" s="495"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="495"/>
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
       <c r="J2" s="394"/>
       <c r="K2" s="394"/>
       <c r="L2" s="394"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="490" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="496" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="490"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="490"/>
-      <c r="E3" s="490"/>
-      <c r="F3" s="490"/>
-      <c r="G3" s="490"/>
-      <c r="H3" s="490"/>
-      <c r="I3" s="490"/>
+      <c r="B3" s="496"/>
+      <c r="C3" s="496"/>
+      <c r="D3" s="496"/>
+      <c r="E3" s="496"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="496"/>
+      <c r="I3" s="496"/>
       <c r="K3" s="395"/>
       <c r="L3" s="395"/>
       <c r="M3" s="396"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="396"/>
       <c r="B4" s="397"/>
       <c r="C4" s="397"/>
@@ -6243,7 +6293,7 @@
       <c r="K4" s="395"/>
       <c r="M4" s="375"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="400" t="s">
         <v>127</v>
       </c>
@@ -6273,7 +6323,7 @@
       <c r="K5" s="403"/>
       <c r="L5" s="403"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="404">
         <v>1</v>
       </c>
@@ -6300,7 +6350,7 @@
       <c r="K6" s="396"/>
       <c r="L6" s="410"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="411">
         <f>A6+1</f>
         <v>2</v>
@@ -6328,7 +6378,7 @@
       <c r="K7" s="396"/>
       <c r="L7" s="410"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="411">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -6356,7 +6406,7 @@
       <c r="K8" s="396"/>
       <c r="L8" s="410"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="411">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6384,7 +6434,7 @@
       <c r="K9" s="396"/>
       <c r="L9" s="410"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="411">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6412,7 +6462,7 @@
       <c r="K10" s="415"/>
       <c r="L10" s="410"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="411">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6440,7 +6490,7 @@
       <c r="K11" s="396"/>
       <c r="L11" s="410"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="411">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6469,7 +6519,7 @@
       <c r="L12" s="410"/>
       <c r="M12" s="418"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="411">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6498,7 +6548,7 @@
       <c r="L13" s="410"/>
       <c r="M13" s="418"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="411">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6528,7 +6578,7 @@
       <c r="K14" s="415"/>
       <c r="L14" s="410"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="411">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6556,7 +6606,7 @@
       <c r="K15" s="415"/>
       <c r="L15" s="410"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="411">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6584,7 +6634,7 @@
       <c r="K16" s="415"/>
       <c r="L16" s="410"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="420">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6612,7 +6662,7 @@
       <c r="K17" s="415"/>
       <c r="L17" s="410"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="426"/>
       <c r="B18" s="427"/>
       <c r="C18" s="396"/>
@@ -6624,7 +6674,7 @@
       <c r="I18" s="396"/>
       <c r="J18" s="396"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="396"/>
       <c r="B19" s="428" t="s">
         <v>138</v>
@@ -6640,7 +6690,7 @@
       <c r="K19" s="429"/>
       <c r="L19" s="429"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="400" t="s">
         <v>139</v>
       </c>
@@ -6668,11 +6718,13 @@
       <c r="I20" s="432" t="s">
         <v>147</v>
       </c>
-      <c r="J20" s="403"/>
+      <c r="J20" s="432" t="s">
+        <v>155</v>
+      </c>
       <c r="K20" s="403"/>
       <c r="L20" s="403"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="433">
         <f>D6*700000</f>
         <v>16800000</v>
@@ -6686,7 +6738,7 @@
       <c r="D21" s="434">
         <v>43769</v>
       </c>
-      <c r="E21" s="436">
+      <c r="E21" s="483">
         <v>2527011</v>
       </c>
       <c r="F21" s="436">
@@ -6704,11 +6756,11 @@
         <f>1-G21</f>
         <v>0.83726071428571425</v>
       </c>
-      <c r="J21" s="440"/>
+      <c r="J21" s="487"/>
       <c r="K21" s="415"/>
       <c r="L21" s="415"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="441"/>
       <c r="B22" s="442">
         <v>43818</v>
@@ -6719,7 +6771,7 @@
       <c r="D22" s="442">
         <v>43833</v>
       </c>
-      <c r="E22" s="443">
+      <c r="E22" s="484">
         <v>1576190</v>
       </c>
       <c r="F22" s="443">
@@ -6737,168 +6789,210 @@
         <f>I21-G22</f>
         <v>0.73517660714285715</v>
       </c>
-      <c r="J22" s="396"/>
+      <c r="J22" s="487"/>
       <c r="K22" s="396"/>
       <c r="L22" s="396"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="446"/>
-      <c r="B23" s="447"/>
-      <c r="C23" s="447"/>
-      <c r="D23" s="447"/>
-      <c r="E23" s="448"/>
-      <c r="F23" s="448"/>
-      <c r="G23" s="449"/>
-      <c r="H23" s="450"/>
-      <c r="I23" s="451"/>
-      <c r="J23" s="440"/>
+      <c r="B23" s="447">
+        <v>43918</v>
+      </c>
+      <c r="C23" s="477" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="447">
+        <v>43922</v>
+      </c>
+      <c r="E23" s="485">
+        <v>757400</v>
+      </c>
+      <c r="F23" s="448">
+        <v>865973</v>
+      </c>
+      <c r="G23" s="437">
+        <f>F23/A$21</f>
+        <v>5.1546011904761907E-2</v>
+      </c>
+      <c r="H23" s="444">
+        <f>H22-F23</f>
+        <v>11484994</v>
+      </c>
+      <c r="I23" s="445">
+        <f>I22-G23</f>
+        <v>0.68363059523809522</v>
+      </c>
+      <c r="J23" s="488">
+        <v>164</v>
+      </c>
       <c r="K23" s="415"/>
       <c r="L23" s="415"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="446"/>
-      <c r="B24" s="390"/>
-      <c r="C24" s="390"/>
-      <c r="D24" s="390"/>
-      <c r="E24" s="390"/>
-      <c r="F24" s="390"/>
-      <c r="G24" s="390"/>
-      <c r="H24" s="390"/>
-      <c r="I24" s="452"/>
-      <c r="J24" s="440"/>
+      <c r="B24" s="478" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="447">
+        <v>43928</v>
+      </c>
+      <c r="D24" s="447">
+        <v>43930</v>
+      </c>
+      <c r="E24" s="485">
+        <v>1514800</v>
+      </c>
+      <c r="F24" s="476">
+        <v>1541221</v>
+      </c>
+      <c r="G24" s="437">
+        <f>F24/A$21</f>
+        <v>9.1739345238095238E-2</v>
+      </c>
+      <c r="H24" s="444">
+        <f>H23-F24</f>
+        <v>9943773</v>
+      </c>
+      <c r="I24" s="445">
+        <f>I23-G24</f>
+        <v>0.59189124999999998</v>
+      </c>
+      <c r="J24" s="489">
+        <v>164</v>
+      </c>
       <c r="K24" s="440"/>
       <c r="L24" s="396"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="446"/>
       <c r="B25" s="447"/>
       <c r="C25" s="447"/>
       <c r="D25" s="447"/>
-      <c r="E25" s="448"/>
-      <c r="F25" s="448"/>
-      <c r="G25" s="453"/>
-      <c r="H25" s="450"/>
-      <c r="I25" s="451"/>
-      <c r="J25" s="440"/>
-      <c r="K25" s="454"/>
+      <c r="E25" s="485"/>
+      <c r="F25" s="449"/>
+      <c r="G25" s="451"/>
+      <c r="H25" s="449"/>
+      <c r="I25" s="450"/>
+      <c r="J25" s="488"/>
+      <c r="K25" s="452"/>
       <c r="L25" s="396"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="446"/>
       <c r="B26" s="447"/>
       <c r="C26" s="447"/>
       <c r="D26" s="447"/>
-      <c r="E26" s="448"/>
-      <c r="F26" s="448"/>
-      <c r="G26" s="453"/>
-      <c r="H26" s="450"/>
-      <c r="I26" s="451"/>
-      <c r="J26" s="440"/>
+      <c r="E26" s="485"/>
+      <c r="F26" s="449"/>
+      <c r="G26" s="451"/>
+      <c r="H26" s="449"/>
+      <c r="I26" s="450"/>
+      <c r="J26" s="488"/>
       <c r="K26" s="440"/>
       <c r="L26" s="396"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="446"/>
       <c r="B27" s="447"/>
       <c r="C27" s="447"/>
       <c r="D27" s="447"/>
-      <c r="E27" s="450"/>
-      <c r="F27" s="448"/>
-      <c r="G27" s="453"/>
-      <c r="H27" s="450"/>
-      <c r="I27" s="451"/>
-      <c r="J27" s="440"/>
+      <c r="E27" s="485"/>
+      <c r="F27" s="449"/>
+      <c r="G27" s="451"/>
+      <c r="H27" s="449"/>
+      <c r="I27" s="450"/>
+      <c r="J27" s="488"/>
       <c r="K27" s="440"/>
       <c r="L27" s="396"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="446"/>
       <c r="B28" s="447"/>
       <c r="C28" s="447"/>
       <c r="D28" s="447"/>
-      <c r="E28" s="450"/>
-      <c r="F28" s="448"/>
-      <c r="G28" s="453"/>
-      <c r="H28" s="450"/>
-      <c r="I28" s="451"/>
-      <c r="J28" s="440"/>
+      <c r="E28" s="485"/>
+      <c r="F28" s="449"/>
+      <c r="G28" s="451"/>
+      <c r="H28" s="449"/>
+      <c r="I28" s="450"/>
+      <c r="J28" s="488"/>
       <c r="K28" s="440"/>
       <c r="L28" s="396"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="446"/>
       <c r="B29" s="447"/>
       <c r="C29" s="447"/>
-      <c r="D29" s="390"/>
-      <c r="E29" s="390"/>
-      <c r="F29" s="448"/>
-      <c r="G29" s="455"/>
-      <c r="H29" s="450"/>
-      <c r="I29" s="456"/>
-      <c r="J29" s="440"/>
+      <c r="D29" s="476"/>
+      <c r="E29" s="485"/>
+      <c r="F29" s="449"/>
+      <c r="G29" s="453"/>
+      <c r="H29" s="449"/>
+      <c r="I29" s="479"/>
+      <c r="J29" s="490"/>
       <c r="K29" s="440"/>
       <c r="L29" s="396"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="446"/>
       <c r="B30" s="447"/>
       <c r="C30" s="447"/>
-      <c r="D30" s="390"/>
-      <c r="E30" s="390"/>
-      <c r="F30" s="448"/>
-      <c r="G30" s="453"/>
-      <c r="H30" s="450"/>
-      <c r="I30" s="456"/>
-      <c r="J30" s="440"/>
+      <c r="D30" s="476"/>
+      <c r="E30" s="485"/>
+      <c r="F30" s="449"/>
+      <c r="G30" s="451"/>
+      <c r="H30" s="449"/>
+      <c r="I30" s="479"/>
+      <c r="J30" s="490"/>
       <c r="K30" s="440"/>
       <c r="L30" s="396"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="457"/>
-      <c r="B31" s="458"/>
-      <c r="C31" s="458"/>
-      <c r="D31" s="459"/>
-      <c r="E31" s="459"/>
-      <c r="F31" s="460"/>
-      <c r="G31" s="461"/>
-      <c r="H31" s="462"/>
-      <c r="I31" s="463"/>
-      <c r="J31" s="396"/>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="454"/>
+      <c r="B31" s="455"/>
+      <c r="C31" s="455"/>
+      <c r="D31" s="480"/>
+      <c r="E31" s="486"/>
+      <c r="F31" s="481"/>
+      <c r="G31" s="456"/>
+      <c r="H31" s="457"/>
+      <c r="I31" s="482"/>
+      <c r="J31" s="491"/>
       <c r="K31" s="396"/>
       <c r="L31" s="396"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="464" t="s">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="458" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="465"/>
-      <c r="C32" s="465"/>
-      <c r="D32" s="466"/>
-      <c r="E32" s="467">
+      <c r="B32" s="459"/>
+      <c r="C32" s="459"/>
+      <c r="D32" s="460"/>
+      <c r="E32" s="461">
         <f>SUM(E21:E31)</f>
-        <v>4103201</v>
-      </c>
-      <c r="F32" s="468">
+        <v>6375401</v>
+      </c>
+      <c r="F32" s="462">
         <f>SUM(F21:F31)</f>
-        <v>4449033</v>
-      </c>
-      <c r="G32" s="469">
+        <v>6856227</v>
+      </c>
+      <c r="G32" s="463">
         <f>SUM(G21:G31)</f>
-        <v>0.26482339285714285</v>
-      </c>
-      <c r="H32" s="470">
+        <v>0.40810875000000002</v>
+      </c>
+      <c r="H32" s="464">
         <f>A21-F32</f>
-        <v>12350967</v>
-      </c>
-      <c r="I32" s="471">
+        <v>9943773</v>
+      </c>
+      <c r="I32" s="465">
         <f>1-G32</f>
-        <v>0.73517660714285715</v>
-      </c>
-      <c r="J32" s="472"/>
-      <c r="K32" s="472"/>
-      <c r="L32" s="472"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.59189124999999998</v>
+      </c>
+      <c r="J32" s="492"/>
+      <c r="K32" s="466"/>
+      <c r="L32" s="466"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="396"/>
       <c r="B35" s="396"/>
       <c r="C35" s="396"/>
@@ -6910,13 +7004,13 @@
       <c r="I35" s="396"/>
       <c r="J35" s="396"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="491" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="497" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="491"/>
-      <c r="C36" s="491"/>
-      <c r="D36" s="491"/>
+      <c r="B36" s="497"/>
+      <c r="C36" s="497"/>
+      <c r="D36" s="497"/>
       <c r="E36" s="396"/>
       <c r="F36" s="396"/>
       <c r="G36" s="396"/>
@@ -6924,15 +7018,15 @@
       <c r="I36" s="396"/>
       <c r="J36" s="396"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="492" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="498" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="492"/>
-      <c r="C37" s="473" t="s">
+      <c r="B37" s="498"/>
+      <c r="C37" s="467" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="473" t="s">
+      <c r="D37" s="467" t="s">
         <v>152</v>
       </c>
       <c r="E37" s="396"/>
@@ -6942,30 +7036,30 @@
       <c r="I37" s="396"/>
       <c r="J37" s="396"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="487">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="493">
         <f>A21-F32</f>
-        <v>12350967</v>
-      </c>
-      <c r="B38" s="488"/>
-      <c r="C38" s="474">
+        <v>9943773</v>
+      </c>
+      <c r="B38" s="494"/>
+      <c r="C38" s="468">
         <f>1-G32</f>
-        <v>0.73517660714285715</v>
-      </c>
-      <c r="D38" s="475">
+        <v>0.59189124999999998</v>
+      </c>
+      <c r="D38" s="469">
         <f>(C38/0.8)*100</f>
-        <v>91.897075892857146</v>
-      </c>
-      <c r="E38" s="476" t="s">
+        <v>73.986406249999987</v>
+      </c>
+      <c r="E38" s="470" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="476"/>
-      <c r="G38" s="476"/>
-      <c r="H38" s="476"/>
-      <c r="I38" s="476"/>
-      <c r="J38" s="476"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="470"/>
+      <c r="G38" s="470"/>
+      <c r="H38" s="470"/>
+      <c r="I38" s="470"/>
+      <c r="J38" s="470"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="396"/>
       <c r="B39" s="396"/>
       <c r="C39" s="396"/>
@@ -6973,7 +7067,7 @@
       <c r="E39" s="396"/>
       <c r="F39" s="396"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="396"/>
       <c r="B40" s="396"/>
       <c r="C40" s="396"/>
@@ -6988,10 +7082,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="396"/>
-      <c r="B41" s="477"/>
-      <c r="C41" s="477"/>
+      <c r="B41" s="471"/>
+      <c r="C41" s="471"/>
       <c r="D41" s="396"/>
       <c r="E41" s="396"/>
       <c r="F41" s="396"/>
@@ -7000,146 +7094,146 @@
       <c r="I41" s="396"/>
       <c r="J41" s="396"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="478"/>
-      <c r="B42" s="478"/>
-      <c r="C42" s="478"/>
-      <c r="D42" s="478"/>
-      <c r="E42" s="478"/>
-      <c r="F42" s="478"/>
-      <c r="G42" s="478"/>
-      <c r="H42" s="478"/>
-      <c r="I42" s="482"/>
-      <c r="J42" s="483"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="479"/>
-      <c r="B43" s="480"/>
-      <c r="C43" s="480"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="472"/>
+      <c r="B42" s="472"/>
+      <c r="C42" s="472"/>
+      <c r="D42" s="472"/>
+      <c r="E42" s="472"/>
+      <c r="F42" s="472"/>
+      <c r="G42" s="472"/>
+      <c r="H42" s="472"/>
+      <c r="I42" s="499"/>
+      <c r="J42" s="500"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="473"/>
+      <c r="B43" s="474"/>
+      <c r="C43" s="474"/>
       <c r="D43" s="396"/>
       <c r="E43" s="396"/>
-      <c r="F43" s="480"/>
+      <c r="F43" s="474"/>
       <c r="G43" s="425"/>
-      <c r="H43" s="480"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="479"/>
-      <c r="B44" s="480"/>
-      <c r="C44" s="480"/>
-      <c r="D44" s="480"/>
-      <c r="E44" s="480"/>
-      <c r="F44" s="480"/>
+      <c r="H43" s="474"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="473"/>
+      <c r="B44" s="474"/>
+      <c r="C44" s="474"/>
+      <c r="D44" s="474"/>
+      <c r="E44" s="474"/>
+      <c r="F44" s="474"/>
       <c r="G44" s="425"/>
-      <c r="H44" s="480"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="479"/>
-      <c r="B45" s="480"/>
-      <c r="C45" s="480"/>
+      <c r="H44" s="474"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="473"/>
+      <c r="B45" s="474"/>
+      <c r="C45" s="474"/>
       <c r="D45" s="396"/>
       <c r="E45" s="396"/>
-      <c r="F45" s="480"/>
+      <c r="F45" s="474"/>
       <c r="G45" s="425"/>
-      <c r="H45" s="480"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="479"/>
-      <c r="B46" s="480"/>
-      <c r="C46" s="480"/>
-      <c r="D46" s="480"/>
-      <c r="E46" s="480"/>
-      <c r="F46" s="480"/>
+      <c r="H45" s="474"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="473"/>
+      <c r="B46" s="474"/>
+      <c r="C46" s="474"/>
+      <c r="D46" s="474"/>
+      <c r="E46" s="474"/>
+      <c r="F46" s="474"/>
       <c r="G46" s="425"/>
-      <c r="H46" s="480"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="479"/>
-      <c r="B47" s="480"/>
-      <c r="C47" s="480"/>
+      <c r="H46" s="474"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="473"/>
+      <c r="B47" s="474"/>
+      <c r="C47" s="474"/>
       <c r="D47" s="396"/>
       <c r="E47" s="396"/>
-      <c r="F47" s="480"/>
+      <c r="F47" s="474"/>
       <c r="G47" s="425"/>
-      <c r="H47" s="480"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="479"/>
-      <c r="B48" s="480"/>
+      <c r="H47" s="474"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="473"/>
+      <c r="B48" s="474"/>
       <c r="C48" s="415"/>
-      <c r="D48" s="481"/>
-      <c r="E48" s="481"/>
+      <c r="D48" s="475"/>
+      <c r="E48" s="475"/>
       <c r="F48" s="415"/>
       <c r="G48" s="415"/>
       <c r="H48" s="415"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="479"/>
-      <c r="B49" s="480"/>
-      <c r="C49" s="480"/>
-      <c r="D49" s="480"/>
-      <c r="E49" s="480"/>
-      <c r="F49" s="480"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="473"/>
+      <c r="B49" s="474"/>
+      <c r="C49" s="474"/>
+      <c r="D49" s="474"/>
+      <c r="E49" s="474"/>
+      <c r="F49" s="474"/>
       <c r="G49" s="425"/>
-      <c r="H49" s="480"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="479"/>
-      <c r="B50" s="480"/>
-      <c r="C50" s="480"/>
-      <c r="D50" s="480"/>
-      <c r="E50" s="480"/>
-      <c r="F50" s="480"/>
+      <c r="H49" s="474"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="473"/>
+      <c r="B50" s="474"/>
+      <c r="C50" s="474"/>
+      <c r="D50" s="474"/>
+      <c r="E50" s="474"/>
+      <c r="F50" s="474"/>
       <c r="G50" s="425"/>
-      <c r="H50" s="480"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="479"/>
-      <c r="B51" s="480"/>
-      <c r="C51" s="480"/>
+      <c r="H50" s="474"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="473"/>
+      <c r="B51" s="474"/>
+      <c r="C51" s="474"/>
       <c r="D51" s="396"/>
       <c r="E51" s="396"/>
-      <c r="F51" s="480"/>
+      <c r="F51" s="474"/>
       <c r="G51" s="425"/>
-      <c r="H51" s="480"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H51" s="474"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="396"/>
-      <c r="B52" s="484"/>
-      <c r="C52" s="484"/>
-      <c r="D52" s="485"/>
-      <c r="E52" s="476"/>
+      <c r="B52" s="501"/>
+      <c r="C52" s="501"/>
+      <c r="D52" s="502"/>
+      <c r="E52" s="470"/>
       <c r="F52" s="396"/>
       <c r="G52" s="396"/>
       <c r="H52" s="396"/>
       <c r="I52" s="396"/>
       <c r="J52" s="396"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="478"/>
-      <c r="B53" s="478"/>
-      <c r="C53" s="478"/>
-      <c r="D53" s="478"/>
-      <c r="E53" s="478"/>
-      <c r="F53" s="478"/>
-      <c r="G53" s="478"/>
-      <c r="H53" s="478"/>
-      <c r="I53" s="482"/>
-      <c r="J53" s="483"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="479"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="472"/>
+      <c r="B53" s="472"/>
+      <c r="C53" s="472"/>
+      <c r="D53" s="472"/>
+      <c r="E53" s="472"/>
+      <c r="F53" s="472"/>
+      <c r="G53" s="472"/>
+      <c r="H53" s="472"/>
+      <c r="I53" s="499"/>
+      <c r="J53" s="500"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="473"/>
       <c r="B54" s="396"/>
       <c r="C54" s="396"/>
       <c r="D54" s="396"/>
       <c r="E54" s="396"/>
       <c r="F54" s="425"/>
       <c r="G54" s="425"/>
-      <c r="H54" s="480"/>
-      <c r="I54" s="486"/>
-      <c r="J54" s="486"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="479"/>
+      <c r="H54" s="474"/>
+      <c r="I54" s="503"/>
+      <c r="J54" s="503"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="473"/>
       <c r="B55" s="396"/>
       <c r="C55" s="396"/>
       <c r="D55" s="415"/>
@@ -7147,10 +7241,10 @@
       <c r="F55" s="415"/>
       <c r="G55" s="415"/>
       <c r="H55" s="415"/>
-      <c r="I55" s="486"/>
-      <c r="J55" s="486"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="503"/>
+      <c r="J55" s="503"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="396"/>
       <c r="B56" s="396"/>
       <c r="C56" s="396"/>
@@ -7160,22 +7254,16 @@
       <c r="G56" s="396"/>
       <c r="H56" s="396"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="482"/>
-      <c r="C61" s="483"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="482"/>
-      <c r="C68" s="483"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="499"/>
+      <c r="C61" s="500"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="499"/>
+      <c r="C68" s="500"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="B52:D52"/>
@@ -7183,10 +7271,16 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="8" man="1"/>
   </rowBreaks>
@@ -7204,20 +7298,20 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="171" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="171" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="171" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="171" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="171" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="171" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="171" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="171" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="171" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="171" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="171" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="171" customWidth="1"/>
     <col min="8" max="18" width="9" style="171" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="171" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="171"/>
+    <col min="19" max="19" width="1.42578125" style="171" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="171"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="167"/>
       <c r="B1" s="168"/>
       <c r="C1" s="169"/>
@@ -7238,49 +7332,49 @@
       <c r="R1" s="169"/>
       <c r="S1" s="170"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="172"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="580"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="582"/>
+      <c r="E2" s="589" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="590"/>
+      <c r="G2" s="590"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="600"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="600"/>
-      <c r="Q2" s="600"/>
+      <c r="P2" s="611"/>
+      <c r="Q2" s="611"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="583"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="592" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -7289,11 +7383,11 @@
       <c r="R3" s="180"/>
       <c r="S3" s="177"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="172"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="587"/>
+      <c r="D4" s="588"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7310,24 +7404,24 @@
       <c r="R4" s="180"/>
       <c r="S4" s="177"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="172"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="573"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="576"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -7336,24 +7430,24 @@
       <c r="R5" s="180"/>
       <c r="S5" s="177"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="172"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="588"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
+      <c r="K6" s="576"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -7362,29 +7456,29 @@
       <c r="R6" s="180"/>
       <c r="S6" s="177"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="172"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="589"/>
-      <c r="D7" s="507">
+      <c r="C7" s="577"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="578" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="589"/>
-      <c r="K7" s="495">
+      <c r="J7" s="577"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -7393,7 +7487,7 @@
       <c r="R7" s="180"/>
       <c r="S7" s="177"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="182"/>
       <c r="B8" s="183"/>
       <c r="C8" s="184"/>
@@ -7414,7 +7508,7 @@
       <c r="R8" s="187"/>
       <c r="S8" s="188"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="189"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -7447,7 +7541,7 @@
       <c r="R9" s="349"/>
       <c r="S9" s="204"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="182"/>
       <c r="B10" s="191" t="s">
         <v>25</v>
@@ -7482,7 +7576,7 @@
       <c r="R10" s="351"/>
       <c r="S10" s="188"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="182"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -7515,7 +7609,7 @@
       <c r="R11" s="353"/>
       <c r="S11" s="188"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="182"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -7548,7 +7642,7 @@
       <c r="R12" s="353"/>
       <c r="S12" s="188"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="182"/>
       <c r="B13" s="193" t="s">
         <v>3</v>
@@ -7581,7 +7675,7 @@
       <c r="R13" s="353"/>
       <c r="S13" s="188"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="182"/>
       <c r="B14" s="193" t="s">
         <v>27</v>
@@ -7614,7 +7708,7 @@
       <c r="R14" s="353"/>
       <c r="S14" s="188"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="182"/>
       <c r="B15" s="193" t="s">
         <v>28</v>
@@ -7647,7 +7741,7 @@
       <c r="R15" s="353"/>
       <c r="S15" s="188"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="182"/>
       <c r="B16" s="193" t="s">
         <v>4</v>
@@ -7680,7 +7774,7 @@
       <c r="R16" s="353"/>
       <c r="S16" s="188"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="182"/>
       <c r="B17" s="193" t="s">
         <v>9</v>
@@ -7713,7 +7807,7 @@
       <c r="R17" s="353"/>
       <c r="S17" s="188"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="182"/>
       <c r="B18" s="193" t="s">
         <v>5</v>
@@ -7746,7 +7840,7 @@
       <c r="R18" s="353"/>
       <c r="S18" s="188"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="195"/>
       <c r="B19" s="196"/>
       <c r="C19" s="196"/>
@@ -7767,20 +7861,9 @@
       <c r="R19" s="196"/>
       <c r="S19" s="198"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7788,6 +7871,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7817,20 +7911,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="210" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="210" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="210" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="210" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="210" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="210" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="210" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="210" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="210" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="210" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="210" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="210" customWidth="1"/>
     <col min="8" max="18" width="9" style="210" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="210" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="210"/>
+    <col min="19" max="19" width="1.42578125" style="210" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="210"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="206"/>
       <c r="B1" s="207"/>
       <c r="C1" s="208"/>
@@ -7851,49 +7945,49 @@
       <c r="R1" s="208"/>
       <c r="S1" s="209"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="211"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="580"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="582"/>
+      <c r="E2" s="589" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="590"/>
+      <c r="G2" s="590"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="600"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="601"/>
-      <c r="Q2" s="601"/>
+      <c r="P2" s="615"/>
+      <c r="Q2" s="615"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="211"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="583"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="592" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -7902,11 +7996,11 @@
       <c r="R3" s="219"/>
       <c r="S3" s="216"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="211"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="587"/>
+      <c r="D4" s="588"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7923,24 +8017,24 @@
       <c r="R4" s="219"/>
       <c r="S4" s="216"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="211"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="573"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="576"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -7949,24 +8043,24 @@
       <c r="R5" s="219"/>
       <c r="S5" s="216"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="211"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="588"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
+      <c r="K6" s="576"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -7975,29 +8069,29 @@
       <c r="R6" s="219"/>
       <c r="S6" s="216"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="211"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="589"/>
-      <c r="D7" s="507">
+      <c r="C7" s="577"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="578" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="589"/>
-      <c r="K7" s="495">
+      <c r="J7" s="577"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -8006,7 +8100,7 @@
       <c r="R7" s="219"/>
       <c r="S7" s="216"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="221"/>
       <c r="B8" s="222"/>
       <c r="C8" s="223"/>
@@ -8027,7 +8121,7 @@
       <c r="R8" s="226"/>
       <c r="S8" s="227"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="228"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8060,7 +8154,7 @@
       <c r="R9" s="230"/>
       <c r="S9" s="231"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="221"/>
       <c r="B10" s="232" t="s">
         <v>25</v>
@@ -8093,7 +8187,7 @@
       <c r="R10" s="236"/>
       <c r="S10" s="227"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="221"/>
       <c r="B11" s="237" t="s">
         <v>26</v>
@@ -8126,7 +8220,7 @@
       <c r="R11" s="241"/>
       <c r="S11" s="227"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="221"/>
       <c r="B12" s="237" t="s">
         <v>2</v>
@@ -8159,7 +8253,7 @@
       <c r="R12" s="241"/>
       <c r="S12" s="227"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="221"/>
       <c r="B13" s="237" t="s">
         <v>3</v>
@@ -8192,7 +8286,7 @@
       <c r="R13" s="241"/>
       <c r="S13" s="227"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="221"/>
       <c r="B14" s="237" t="s">
         <v>27</v>
@@ -8225,7 +8319,7 @@
       <c r="R14" s="241"/>
       <c r="S14" s="227"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="221"/>
       <c r="B15" s="237" t="s">
         <v>28</v>
@@ -8258,7 +8352,7 @@
       <c r="R15" s="241"/>
       <c r="S15" s="227"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="221"/>
       <c r="B16" s="237" t="s">
         <v>9</v>
@@ -8291,7 +8385,7 @@
       <c r="R16" s="241"/>
       <c r="S16" s="227"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="221"/>
       <c r="B17" s="237" t="s">
         <v>5</v>
@@ -8324,14 +8418,14 @@
       <c r="R17" s="241"/>
       <c r="S17" s="227"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="221"/>
-      <c r="B18" s="602" t="s">
+      <c r="B18" s="612" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="603"/>
-      <c r="D18" s="603"/>
-      <c r="E18" s="604"/>
+      <c r="C18" s="613"/>
+      <c r="D18" s="613"/>
+      <c r="E18" s="614"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -8351,7 +8445,7 @@
       <c r="R18" s="245"/>
       <c r="S18" s="227"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="246"/>
       <c r="B19" s="247"/>
       <c r="C19" s="247"/>
@@ -8372,9 +8466,17 @@
       <c r="R19" s="247"/>
       <c r="S19" s="249"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8386,14 +8488,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8443,20 +8537,20 @@
       <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8477,49 +8571,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="135"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="580"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="582"/>
+      <c r="E2" s="589" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="590"/>
+      <c r="G2" s="590"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="600"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="605"/>
-      <c r="Q2" s="605"/>
+      <c r="P2" s="616"/>
+      <c r="Q2" s="616"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="135"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="583"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="592" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -8528,11 +8622,11 @@
       <c r="R3" s="143"/>
       <c r="S3" s="140"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="587"/>
+      <c r="D4" s="588"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -8549,24 +8643,24 @@
       <c r="R4" s="143"/>
       <c r="S4" s="140"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="135"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="573"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="576"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -8575,24 +8669,24 @@
       <c r="R5" s="143"/>
       <c r="S5" s="140"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="135"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="588"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
+      <c r="K6" s="576"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -8601,29 +8695,29 @@
       <c r="R6" s="143"/>
       <c r="S6" s="140"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="135"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="589"/>
-      <c r="D7" s="507">
+      <c r="C7" s="577"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="578" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="589"/>
-      <c r="K7" s="495">
+      <c r="J7" s="577"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -8632,7 +8726,7 @@
       <c r="R7" s="143"/>
       <c r="S7" s="140"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="145"/>
       <c r="C8" s="146"/>
@@ -8653,7 +8747,7 @@
       <c r="R8" s="149"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="150"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -8686,7 +8780,7 @@
       <c r="R9" s="153"/>
       <c r="S9" s="154"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="155"/>
       <c r="B10" s="156" t="s">
         <v>25</v>
@@ -8719,7 +8813,7 @@
       <c r="R10" s="158"/>
       <c r="S10" s="159"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="155"/>
       <c r="B11" s="156" t="s">
         <v>26</v>
@@ -8752,7 +8846,7 @@
       <c r="R11" s="158"/>
       <c r="S11" s="159"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="155"/>
       <c r="B12" s="156" t="s">
         <v>2</v>
@@ -8785,7 +8879,7 @@
       <c r="R12" s="158"/>
       <c r="S12" s="159"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="155"/>
       <c r="B13" s="156" t="s">
         <v>3</v>
@@ -8818,7 +8912,7 @@
       <c r="R13" s="158"/>
       <c r="S13" s="159"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="155"/>
       <c r="B14" s="156" t="s">
         <v>27</v>
@@ -8851,7 +8945,7 @@
       <c r="R14" s="158"/>
       <c r="S14" s="159"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="155"/>
       <c r="B15" s="156" t="s">
         <v>28</v>
@@ -8884,7 +8978,7 @@
       <c r="R15" s="158"/>
       <c r="S15" s="159"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="155"/>
       <c r="B16" s="156" t="s">
         <v>4</v>
@@ -8917,7 +9011,7 @@
       <c r="R16" s="158"/>
       <c r="S16" s="159"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -8938,7 +9032,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -8959,7 +9053,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="105"/>
       <c r="C19" s="106"/>
@@ -8980,7 +9074,7 @@
       <c r="R19" s="111"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="112"/>
       <c r="B20" s="113"/>
       <c r="C20" s="113"/>
@@ -9001,20 +9095,9 @@
       <c r="R20" s="115"/>
       <c r="S20" s="116"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9022,6 +9105,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -9051,20 +9145,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="267" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="267" customWidth="1"/>
     <col min="2" max="2" width="5" style="267" customWidth="1"/>
     <col min="3" max="3" width="11" style="267" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="267" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="267" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="267" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="267" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="267" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="267" customWidth="1"/>
     <col min="8" max="18" width="9" style="267" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="267" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="267"/>
+    <col min="19" max="19" width="1.42578125" style="267" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="267"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="263"/>
       <c r="B1" s="264"/>
       <c r="C1" s="265"/>
@@ -9085,49 +9179,49 @@
       <c r="R1" s="265"/>
       <c r="S1" s="266"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="268"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="580"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="582"/>
+      <c r="E2" s="589" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="590"/>
+      <c r="G2" s="590"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="607">
+      <c r="J2" s="596"/>
+      <c r="K2" s="618">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="608"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="606"/>
-      <c r="Q2" s="606"/>
+      <c r="P2" s="617"/>
+      <c r="Q2" s="617"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="268"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="583"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="592" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="609"/>
-      <c r="L3" s="610"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9136,11 +9230,11 @@
       <c r="R3" s="276"/>
       <c r="S3" s="273"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="268"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="587"/>
+      <c r="D4" s="588"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9157,24 +9251,24 @@
       <c r="R4" s="276"/>
       <c r="S4" s="273"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="268"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="573"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="576"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -9183,24 +9277,24 @@
       <c r="R5" s="276"/>
       <c r="S5" s="273"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="268"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="588"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
+      <c r="K6" s="576"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -9209,29 +9303,29 @@
       <c r="R6" s="276"/>
       <c r="S6" s="273"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="268"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="589"/>
-      <c r="D7" s="507">
+      <c r="C7" s="577"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="578" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="589"/>
-      <c r="K7" s="495">
+      <c r="J7" s="577"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -9240,7 +9334,7 @@
       <c r="R7" s="276"/>
       <c r="S7" s="273"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="278"/>
       <c r="B8" s="279"/>
       <c r="C8" s="280"/>
@@ -9261,7 +9355,7 @@
       <c r="R8" s="283"/>
       <c r="S8" s="284"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="285"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -9294,7 +9388,7 @@
       <c r="R9" s="355"/>
       <c r="S9" s="287"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="278"/>
       <c r="B10" s="288" t="s">
         <v>25</v>
@@ -9327,7 +9421,7 @@
       <c r="R10" s="357"/>
       <c r="S10" s="284"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="278"/>
       <c r="B11" s="292" t="s">
         <v>26</v>
@@ -9360,7 +9454,7 @@
       <c r="R11" s="358"/>
       <c r="S11" s="284"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="278"/>
       <c r="B12" s="292" t="s">
         <v>2</v>
@@ -9393,7 +9487,7 @@
       <c r="R12" s="360"/>
       <c r="S12" s="284"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="278"/>
       <c r="B13" s="292" t="s">
         <v>28</v>
@@ -9426,7 +9520,7 @@
       <c r="R13" s="360"/>
       <c r="S13" s="284"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="278"/>
       <c r="B14" s="292" t="s">
         <v>4</v>
@@ -9459,7 +9553,7 @@
       <c r="R14" s="360"/>
       <c r="S14" s="284"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="278"/>
       <c r="B15" s="298"/>
       <c r="C15" s="299"/>
@@ -9480,7 +9574,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="284"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="301"/>
       <c r="B16" s="302"/>
       <c r="C16" s="302"/>
@@ -9501,10 +9595,9 @@
       <c r="R16" s="302"/>
       <c r="S16" s="304"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -9522,6 +9615,7 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9554,83 +9648,83 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="497" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="506" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="501"/>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
+      <c r="B1" s="510"/>
+      <c r="C1" s="510"/>
+      <c r="D1" s="510"/>
+      <c r="E1" s="510"/>
       <c r="G1" s="374" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="498" t="s">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="507" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="499"/>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
-      <c r="E2" s="500"/>
+      <c r="B2" s="508"/>
+      <c r="C2" s="508"/>
+      <c r="D2" s="508"/>
+      <c r="E2" s="509"/>
       <c r="G2" s="373" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="373" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="502" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="511" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="503"/>
-      <c r="C4" s="503"/>
-      <c r="D4" s="503"/>
-      <c r="E4" s="503"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="504" t="s">
+      <c r="B4" s="512"/>
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
+      <c r="E4" s="512"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="513" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="505"/>
-      <c r="C5" s="505"/>
-      <c r="D5" s="505"/>
-      <c r="E5" s="506"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="497" t="s">
+      <c r="B5" s="514"/>
+      <c r="C5" s="514"/>
+      <c r="D5" s="514"/>
+      <c r="E5" s="515"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="506" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="501"/>
-      <c r="C7" s="501"/>
-      <c r="D7" s="501"/>
-      <c r="E7" s="501"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="507"/>
-      <c r="B8" s="508"/>
-      <c r="C8" s="508"/>
-      <c r="D8" s="508"/>
-      <c r="E8" s="509"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="497" t="s">
+      <c r="B7" s="510"/>
+      <c r="C7" s="510"/>
+      <c r="D7" s="510"/>
+      <c r="E7" s="510"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="516"/>
+      <c r="B8" s="517"/>
+      <c r="C8" s="517"/>
+      <c r="D8" s="517"/>
+      <c r="E8" s="518"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="506" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="497"/>
+      <c r="B10" s="506"/>
       <c r="C10" s="375"/>
       <c r="D10" s="383" t="s">
         <v>96</v>
@@ -9640,36 +9734,36 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="495"/>
-      <c r="B11" s="496"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="504"/>
+      <c r="B11" s="505"/>
       <c r="D11" s="382">
         <v>43741</v>
       </c>
-      <c r="F11" s="493" t="s">
+      <c r="F11" s="519" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="493"/>
-      <c r="H11" s="493"/>
-      <c r="I11" s="493"/>
-      <c r="J11" s="494" t="s">
+      <c r="G11" s="519"/>
+      <c r="H11" s="519"/>
+      <c r="I11" s="519"/>
+      <c r="J11" s="520" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="494"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="493" t="s">
+      <c r="K11" s="520"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="519" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="493"/>
-      <c r="H12" s="493"/>
-      <c r="I12" s="493"/>
-      <c r="J12" s="494" t="s">
+      <c r="G12" s="519"/>
+      <c r="H12" s="519"/>
+      <c r="I12" s="519"/>
+      <c r="J12" s="520" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="494"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="520"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="376" t="s">
         <v>90</v>
       </c>
@@ -9679,18 +9773,18 @@
       <c r="C13" s="389" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="493" t="s">
+      <c r="F13" s="519" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="493"/>
-      <c r="H13" s="493"/>
-      <c r="I13" s="493"/>
-      <c r="J13" s="494" t="s">
+      <c r="G13" s="519"/>
+      <c r="H13" s="519"/>
+      <c r="I13" s="519"/>
+      <c r="J13" s="520" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="494"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="520"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="378" t="s">
         <v>44</v>
       </c>
@@ -9701,7 +9795,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="378" t="s">
         <v>45</v>
       </c>
@@ -9712,7 +9806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="378" t="s">
         <v>38</v>
       </c>
@@ -9723,7 +9817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="378" t="s">
         <v>23</v>
       </c>
@@ -9734,7 +9828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="378" t="s">
         <v>48</v>
       </c>
@@ -9745,7 +9839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="378" t="s">
         <v>92</v>
       </c>
@@ -9756,7 +9850,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="378" t="s">
         <v>52</v>
       </c>
@@ -9767,7 +9861,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="378" t="s">
         <v>54</v>
       </c>
@@ -9778,7 +9872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="378" t="s">
         <v>93</v>
       </c>
@@ -9787,7 +9881,7 @@
       </c>
       <c r="C22" s="385"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="378" t="s">
         <v>57</v>
       </c>
@@ -9798,7 +9892,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="378" t="s">
         <v>71</v>
       </c>
@@ -9809,7 +9903,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="378" t="s">
         <v>94</v>
       </c>
@@ -9818,7 +9912,7 @@
       </c>
       <c r="C25" s="385"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="380" t="s">
         <v>56</v>
       </c>
@@ -9829,7 +9923,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="380" t="s">
         <v>123</v>
       </c>
@@ -9838,14 +9932,20 @@
       </c>
       <c r="C27" s="390"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="384"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
@@ -9854,12 +9954,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -9874,16 +9968,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="309"/>
-    <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="309"/>
+    <col min="1" max="6" width="9.140625" style="309"/>
+    <col min="7" max="7" width="9.140625" style="309" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="309" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="309" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="319" t="s">
         <v>59</v>
       </c>
@@ -9892,7 +9986,7 @@
       <c r="J2" s="320"/>
       <c r="K2" s="320"/>
     </row>
-    <row r="3" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="319" t="s">
         <v>104</v>
       </c>
@@ -9901,7 +9995,7 @@
       <c r="J3" s="320"/>
       <c r="K3" s="320"/>
     </row>
-    <row r="4" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="319" t="s">
         <v>107</v>
       </c>
@@ -9910,8 +10004,8 @@
       <c r="J4" s="320"/>
       <c r="K4" s="320"/>
     </row>
-    <row r="5" spans="1:11" s="370" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="371"/>
       <c r="H6" s="319" t="s">
         <v>105</v>
@@ -9919,12 +10013,12 @@
       <c r="I6" s="320"/>
       <c r="J6" s="320"/>
     </row>
-    <row r="7" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="370" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="320"/>
       <c r="I7" s="320"/>
       <c r="J7" s="320"/>
     </row>
-    <row r="8" spans="1:11" s="370" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="370" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="312" t="s">
         <v>60</v>
       </c>
@@ -9934,50 +10028,50 @@
       <c r="I8" s="320"/>
       <c r="J8" s="320"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="518" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="527" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="518"/>
-      <c r="C11" s="518"/>
-      <c r="D11" s="518"/>
-      <c r="E11" s="518"/>
-      <c r="F11" s="518"/>
-      <c r="G11" s="518"/>
-      <c r="H11" s="518"/>
-      <c r="I11" s="518"/>
-      <c r="J11" s="518"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="517" t="s">
+      <c r="B11" s="527"/>
+      <c r="C11" s="527"/>
+      <c r="D11" s="527"/>
+      <c r="E11" s="527"/>
+      <c r="F11" s="527"/>
+      <c r="G11" s="527"/>
+      <c r="H11" s="527"/>
+      <c r="I11" s="527"/>
+      <c r="J11" s="527"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="526" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="517"/>
-      <c r="C12" s="517"/>
-      <c r="D12" s="517"/>
-      <c r="E12" s="517"/>
-      <c r="F12" s="517"/>
-      <c r="G12" s="517"/>
-      <c r="H12" s="517"/>
-      <c r="I12" s="517"/>
-      <c r="J12" s="517"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="519" t="str">
+      <c r="B12" s="526"/>
+      <c r="C12" s="526"/>
+      <c r="D12" s="526"/>
+      <c r="E12" s="526"/>
+      <c r="F12" s="526"/>
+      <c r="G12" s="526"/>
+      <c r="H12" s="526"/>
+      <c r="I12" s="526"/>
+      <c r="J12" s="526"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="528" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="B13" s="518"/>
-      <c r="C13" s="518"/>
-      <c r="D13" s="518"/>
-      <c r="E13" s="518"/>
-      <c r="F13" s="518"/>
-      <c r="G13" s="518"/>
-      <c r="H13" s="518"/>
-      <c r="I13" s="518"/>
-      <c r="J13" s="518"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="527"/>
+      <c r="C13" s="527"/>
+      <c r="D13" s="527"/>
+      <c r="E13" s="527"/>
+      <c r="F13" s="527"/>
+      <c r="G13" s="527"/>
+      <c r="H13" s="527"/>
+      <c r="I13" s="527"/>
+      <c r="J13" s="527"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="313" t="s">
         <v>61</v>
       </c>
@@ -9994,7 +10088,7 @@
       <c r="I15" s="313"/>
       <c r="J15" s="314"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="313" t="s">
         <v>98</v>
       </c>
@@ -10008,7 +10102,7 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="372" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="322" t="s">
         <v>62</v>
       </c>
@@ -10029,7 +10123,7 @@
       </c>
       <c r="J17" s="314"/>
     </row>
-    <row r="18" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="372" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="322" t="s">
         <v>62</v>
       </c>
@@ -10050,7 +10144,7 @@
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="372" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="323"/>
       <c r="B19" s="323"/>
       <c r="C19" s="323"/>
@@ -10068,7 +10162,7 @@
       </c>
       <c r="J19" s="314"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="313" t="s">
         <v>76</v>
       </c>
@@ -10085,7 +10179,7 @@
       </c>
       <c r="J20" s="314"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="313" t="s">
         <v>77</v>
       </c>
@@ -10099,313 +10193,313 @@
       <c r="I21" s="313"/>
       <c r="J21" s="314"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="515" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="529" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="515" t="s">
+      <c r="B22" s="529" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="515"/>
-      <c r="D22" s="515"/>
-      <c r="E22" s="515" t="s">
+      <c r="C22" s="529"/>
+      <c r="D22" s="529"/>
+      <c r="E22" s="529" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="515"/>
-      <c r="G22" s="516" t="s">
+      <c r="F22" s="529"/>
+      <c r="G22" s="530" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="515" t="s">
+      <c r="H22" s="529" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="515"/>
-      <c r="J22" s="515"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="515"/>
-      <c r="B23" s="515"/>
-      <c r="C23" s="515"/>
-      <c r="D23" s="515"/>
-      <c r="E23" s="515"/>
-      <c r="F23" s="515"/>
-      <c r="G23" s="516"/>
-      <c r="H23" s="515"/>
-      <c r="I23" s="515"/>
-      <c r="J23" s="515"/>
-    </row>
-    <row r="24" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="529"/>
+      <c r="J22" s="529"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="529"/>
+      <c r="B23" s="529"/>
+      <c r="C23" s="529"/>
+      <c r="D23" s="529"/>
+      <c r="E23" s="529"/>
+      <c r="F23" s="529"/>
+      <c r="G23" s="530"/>
+      <c r="H23" s="529"/>
+      <c r="I23" s="529"/>
+      <c r="J23" s="529"/>
+    </row>
+    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="386">
         <v>1</v>
       </c>
-      <c r="B24" s="510" t="s">
+      <c r="B24" s="521" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="511"/>
-      <c r="D24" s="512"/>
-      <c r="E24" s="513" t="str">
+      <c r="C24" s="522"/>
+      <c r="D24" s="523"/>
+      <c r="E24" s="524" t="str">
         <f>Данные!C14</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F24" s="513"/>
+      <c r="F24" s="524"/>
       <c r="G24" s="318">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="514"/>
-      <c r="I24" s="514"/>
-      <c r="J24" s="514"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="525"/>
+      <c r="I24" s="525"/>
+      <c r="J24" s="525"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="386">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B25" s="510" t="s">
+      <c r="B25" s="521" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="511"/>
-      <c r="D25" s="512"/>
-      <c r="E25" s="513" t="str">
+      <c r="C25" s="522"/>
+      <c r="D25" s="523"/>
+      <c r="E25" s="524" t="str">
         <f>Данные!C15</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F25" s="513"/>
+      <c r="F25" s="524"/>
       <c r="G25" s="318">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H25" s="514"/>
-      <c r="I25" s="514"/>
-      <c r="J25" s="514"/>
-    </row>
-    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="525"/>
+      <c r="I25" s="525"/>
+      <c r="J25" s="525"/>
+    </row>
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="386">
         <f t="shared" ref="A26:A35" si="0">A25+1</f>
         <v>3</v>
       </c>
-      <c r="B26" s="510" t="s">
+      <c r="B26" s="521" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="511"/>
-      <c r="D26" s="512"/>
-      <c r="E26" s="513" t="str">
+      <c r="C26" s="522"/>
+      <c r="D26" s="523"/>
+      <c r="E26" s="524" t="str">
         <f>Данные!C16</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F26" s="513"/>
+      <c r="F26" s="524"/>
       <c r="G26" s="318">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H26" s="514"/>
-      <c r="I26" s="514"/>
-      <c r="J26" s="514"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="525"/>
+      <c r="I26" s="525"/>
+      <c r="J26" s="525"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="386">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B27" s="510" t="s">
+      <c r="B27" s="521" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="511"/>
-      <c r="D27" s="512"/>
-      <c r="E27" s="513" t="str">
+      <c r="C27" s="522"/>
+      <c r="D27" s="523"/>
+      <c r="E27" s="524" t="str">
         <f>Данные!C17</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F27" s="513"/>
+      <c r="F27" s="524"/>
       <c r="G27" s="318">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H27" s="514"/>
-      <c r="I27" s="514"/>
-      <c r="J27" s="514"/>
-    </row>
-    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="525"/>
+      <c r="I27" s="525"/>
+      <c r="J27" s="525"/>
+    </row>
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="386">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B28" s="510" t="s">
+      <c r="B28" s="521" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="511"/>
-      <c r="D28" s="512"/>
-      <c r="E28" s="513" t="str">
+      <c r="C28" s="522"/>
+      <c r="D28" s="523"/>
+      <c r="E28" s="524" t="str">
         <f>Данные!C18</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F28" s="513"/>
+      <c r="F28" s="524"/>
       <c r="G28" s="318">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H28" s="514"/>
-      <c r="I28" s="514"/>
-      <c r="J28" s="514"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="525"/>
+      <c r="I28" s="525"/>
+      <c r="J28" s="525"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="386">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B29" s="510" t="s">
+      <c r="B29" s="521" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="511"/>
-      <c r="D29" s="512"/>
-      <c r="E29" s="513" t="str">
+      <c r="C29" s="522"/>
+      <c r="D29" s="523"/>
+      <c r="E29" s="524" t="str">
         <f>Данные!C19</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F29" s="513"/>
+      <c r="F29" s="524"/>
       <c r="G29" s="318">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="H29" s="514"/>
-      <c r="I29" s="514"/>
-      <c r="J29" s="514"/>
-    </row>
-    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="525"/>
+      <c r="I29" s="525"/>
+      <c r="J29" s="525"/>
+    </row>
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="386">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B30" s="510" t="s">
+      <c r="B30" s="521" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="511"/>
-      <c r="D30" s="512"/>
-      <c r="E30" s="513" t="str">
+      <c r="C30" s="522"/>
+      <c r="D30" s="523"/>
+      <c r="E30" s="524" t="str">
         <f>Данные!C20</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F30" s="513"/>
+      <c r="F30" s="524"/>
       <c r="G30" s="318">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H30" s="514"/>
-      <c r="I30" s="514"/>
-      <c r="J30" s="514"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="525"/>
+      <c r="I30" s="525"/>
+      <c r="J30" s="525"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="386">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B31" s="510" t="s">
+      <c r="B31" s="521" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="511"/>
-      <c r="D31" s="512"/>
-      <c r="E31" s="513" t="str">
+      <c r="C31" s="522"/>
+      <c r="D31" s="523"/>
+      <c r="E31" s="524" t="str">
         <f>Данные!C21</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F31" s="513"/>
+      <c r="F31" s="524"/>
       <c r="G31" s="318">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H31" s="514"/>
-      <c r="I31" s="514"/>
-      <c r="J31" s="514"/>
-    </row>
-    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="525"/>
+      <c r="I31" s="525"/>
+      <c r="J31" s="525"/>
+    </row>
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="386">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B32" s="510" t="s">
+      <c r="B32" s="521" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="511"/>
-      <c r="D32" s="512"/>
-      <c r="E32" s="513" t="str">
+      <c r="C32" s="522"/>
+      <c r="D32" s="523"/>
+      <c r="E32" s="524" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F32" s="513"/>
+      <c r="F32" s="524"/>
       <c r="G32" s="318">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H32" s="514"/>
-      <c r="I32" s="514"/>
-      <c r="J32" s="514"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H32" s="525"/>
+      <c r="I32" s="525"/>
+      <c r="J32" s="525"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="386">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B33" s="510" t="s">
+      <c r="B33" s="521" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="511"/>
-      <c r="D33" s="512"/>
-      <c r="E33" s="513" t="str">
+      <c r="C33" s="522"/>
+      <c r="D33" s="523"/>
+      <c r="E33" s="524" t="str">
         <f>Данные!C23</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F33" s="513"/>
+      <c r="F33" s="524"/>
       <c r="G33" s="318">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H33" s="514"/>
-      <c r="I33" s="514"/>
-      <c r="J33" s="514"/>
-    </row>
-    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="525"/>
+      <c r="I33" s="525"/>
+      <c r="J33" s="525"/>
+    </row>
+    <row r="34" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="386">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B34" s="510" t="s">
+      <c r="B34" s="521" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="511"/>
-      <c r="D34" s="512"/>
-      <c r="E34" s="513"/>
-      <c r="F34" s="513"/>
+      <c r="C34" s="522"/>
+      <c r="D34" s="523"/>
+      <c r="E34" s="524"/>
+      <c r="F34" s="524"/>
       <c r="G34" s="388">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H34" s="514"/>
-      <c r="I34" s="514"/>
-      <c r="J34" s="514"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="525"/>
+      <c r="I34" s="525"/>
+      <c r="J34" s="525"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="386">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B35" s="510" t="s">
+      <c r="B35" s="521" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="511"/>
-      <c r="D35" s="512"/>
-      <c r="E35" s="513" t="str">
+      <c r="C35" s="522"/>
+      <c r="D35" s="523"/>
+      <c r="E35" s="524" t="str">
         <f>Данные!C24</f>
         <v>ХХI-В-28-1-200-5</v>
       </c>
-      <c r="F35" s="513"/>
+      <c r="F35" s="524"/>
       <c r="G35" s="318">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H35" s="514"/>
-      <c r="I35" s="514"/>
-      <c r="J35" s="514"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H35" s="525"/>
+      <c r="I35" s="525"/>
+      <c r="J35" s="525"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="313"/>
       <c r="B36" s="313"/>
       <c r="C36" s="313"/>
@@ -10417,7 +10511,7 @@
       <c r="I36" s="313"/>
       <c r="J36" s="314"/>
     </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="313" t="s">
         <v>72</v>
       </c>
@@ -10431,7 +10525,7 @@
       <c r="I37" s="313"/>
       <c r="J37" s="314"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="313"/>
       <c r="B38" s="313"/>
       <c r="C38" s="313"/>
@@ -10443,7 +10537,7 @@
       <c r="I38" s="313"/>
       <c r="J38" s="314"/>
     </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="313"/>
       <c r="B39" s="316" t="s">
         <v>73</v>
@@ -10459,7 +10553,7 @@
       <c r="I39" s="313"/>
       <c r="J39" s="314"/>
     </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="313"/>
       <c r="B40" s="313"/>
       <c r="C40" s="313"/>
@@ -10471,7 +10565,7 @@
       <c r="I40" s="313"/>
       <c r="J40" s="314"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="313"/>
       <c r="B41" s="313"/>
       <c r="C41" s="313"/>
@@ -10485,7 +10579,7 @@
       </c>
       <c r="J41" s="313"/>
     </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="313"/>
       <c r="B42" s="313"/>
       <c r="C42" s="313"/>
@@ -10496,7 +10590,7 @@
       <c r="I42" s="313"/>
       <c r="J42" s="313"/>
     </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="313"/>
       <c r="B43" s="313"/>
       <c r="C43" s="313"/>
@@ -10509,14 +10603,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="310"/>
       <c r="B44" s="310"/>
       <c r="C44" s="310"/>
       <c r="D44" s="310"/>
       <c r="E44" s="310"/>
     </row>
-    <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="310"/>
       <c r="B45" s="310"/>
       <c r="C45" s="310"/>
@@ -10532,12 +10626,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10554,28 +10664,12 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:J35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10594,20 +10688,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -10628,49 +10722,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="520"/>
-      <c r="C2" s="521"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="529" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="558" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="530"/>
-      <c r="G2" s="530"/>
-      <c r="H2" s="531"/>
-      <c r="I2" s="536" t="s">
+      <c r="F2" s="559"/>
+      <c r="G2" s="559"/>
+      <c r="H2" s="560"/>
+      <c r="I2" s="565" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="537"/>
-      <c r="K2" s="540">
+      <c r="J2" s="566"/>
+      <c r="K2" s="569">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="541"/>
+      <c r="L2" s="570"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="532"/>
-      <c r="Q2" s="532"/>
+      <c r="P2" s="561"/>
+      <c r="Q2" s="561"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="523"/>
-      <c r="C3" s="524"/>
-      <c r="D3" s="525"/>
-      <c r="E3" s="533" t="s">
+      <c r="B3" s="552"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="562" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="534"/>
-      <c r="G3" s="534"/>
-      <c r="H3" s="535"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="539"/>
-      <c r="K3" s="542"/>
-      <c r="L3" s="543"/>
+      <c r="F3" s="563"/>
+      <c r="G3" s="563"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="567"/>
+      <c r="J3" s="568"/>
+      <c r="K3" s="571"/>
+      <c r="L3" s="572"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10679,11 +10773,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="527"/>
-      <c r="D4" s="528"/>
+      <c r="B4" s="555"/>
+      <c r="C4" s="556"/>
+      <c r="D4" s="557"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10700,24 +10794,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="548"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="535"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="549"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="505"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="536"/>
+      <c r="J5" s="537"/>
+      <c r="K5" s="514"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10726,24 +10820,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="551"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="538"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="549"/>
-      <c r="J6" s="550"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="536"/>
+      <c r="J6" s="537"/>
+      <c r="K6" s="514"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10752,29 +10846,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="507">
+      <c r="C7" s="542"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="541" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="495">
+      <c r="J7" s="545"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10783,7 +10877,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -10804,7 +10898,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -10837,7 +10931,7 @@
       <c r="R9" s="328"/>
       <c r="S9" s="199"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -10870,7 +10964,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -10903,7 +10997,7 @@
       <c r="R11" s="332"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -10936,7 +11030,7 @@
       <c r="R12" s="332"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -10969,7 +11063,7 @@
       <c r="R13" s="332"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -11002,7 +11096,7 @@
       <c r="R14" s="332"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -11035,7 +11129,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -11068,7 +11162,7 @@
       <c r="R16" s="332"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>30</v>
@@ -11101,7 +11195,7 @@
       <c r="R17" s="332"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="105" t="s">
         <v>32</v>
@@ -11134,7 +11228,7 @@
       <c r="R18" s="334"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="105" t="s">
         <v>33</v>
@@ -11167,7 +11261,7 @@
       <c r="R19" s="334"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="105" t="s">
         <v>35</v>
@@ -11200,7 +11294,7 @@
       <c r="R20" s="334"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="105" t="s">
         <v>41</v>
@@ -11233,7 +11327,7 @@
       <c r="R21" s="334"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="105" t="s">
         <v>42</v>
@@ -11266,14 +11360,14 @@
       <c r="R22" s="334"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="559" t="s">
+      <c r="B23" s="546" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="560"/>
-      <c r="D23" s="560"/>
-      <c r="E23" s="561"/>
+      <c r="C23" s="547"/>
+      <c r="D23" s="547"/>
+      <c r="E23" s="548"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -11293,14 +11387,14 @@
       <c r="R23" s="334"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="544" t="s">
+      <c r="B24" s="531" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="545"/>
-      <c r="D24" s="545"/>
-      <c r="E24" s="546"/>
+      <c r="C24" s="532"/>
+      <c r="D24" s="532"/>
+      <c r="E24" s="533"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -11320,7 +11414,7 @@
       <c r="R24" s="336"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="112"/>
       <c r="B25" s="113"/>
       <c r="C25" s="113"/>
@@ -11341,9 +11435,15 @@
       <c r="R25" s="115"/>
       <c r="S25" s="116"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11358,12 +11458,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11393,20 +11487,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11427,52 +11521,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562">
+      <c r="B2" s="580">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="C2" s="581"/>
+      <c r="D2" s="582"/>
+      <c r="E2" s="589" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="590"/>
+      <c r="G2" s="590"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="600"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="532"/>
-      <c r="Q2" s="532"/>
+      <c r="P2" s="561"/>
+      <c r="Q2" s="561"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="583"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11481,11 +11575,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="587"/>
+      <c r="D4" s="588"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11502,24 +11596,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="573"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="576"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11528,24 +11622,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="588"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
+      <c r="K6" s="576"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11554,29 +11648,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="589"/>
-      <c r="D7" s="507">
+      <c r="C7" s="577"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="578" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="589"/>
-      <c r="K7" s="495">
+      <c r="J7" s="577"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11585,7 +11679,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11606,7 +11700,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11639,7 +11733,7 @@
       <c r="R9" s="328"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11672,7 +11766,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -11705,7 +11799,7 @@
       <c r="R11" s="332"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -11738,7 +11832,7 @@
       <c r="R12" s="332"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -11771,15 +11865,15 @@
       <c r="R13" s="332"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="559" t="s">
+      <c r="B14" s="546" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="560"/>
-      <c r="D14" s="560"/>
-      <c r="E14" s="560"/>
-      <c r="F14" s="591"/>
+      <c r="C14" s="547"/>
+      <c r="D14" s="547"/>
+      <c r="E14" s="547"/>
+      <c r="F14" s="579"/>
       <c r="G14" s="56" t="s">
         <v>79</v>
       </c>
@@ -11796,14 +11890,14 @@
       <c r="R14" s="334"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="544" t="s">
+      <c r="B15" s="531" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="545"/>
-      <c r="D15" s="545"/>
-      <c r="E15" s="546"/>
+      <c r="C15" s="532"/>
+      <c r="D15" s="532"/>
+      <c r="E15" s="533"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -11823,7 +11917,7 @@
       <c r="R15" s="336"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="112"/>
       <c r="B16" s="113"/>
       <c r="C16" s="113"/>
@@ -11844,16 +11938,22 @@
       <c r="R16" s="115"/>
       <c r="S16" s="116"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="125"/>
       <c r="P17" s="126"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -11868,12 +11968,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -11911,20 +12005,20 @@
       <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11945,49 +12039,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="520"/>
-      <c r="C2" s="521"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="529" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="558" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="530"/>
-      <c r="G2" s="530"/>
-      <c r="H2" s="531"/>
-      <c r="I2" s="536" t="s">
+      <c r="F2" s="559"/>
+      <c r="G2" s="559"/>
+      <c r="H2" s="560"/>
+      <c r="I2" s="565" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="537"/>
-      <c r="K2" s="540">
+      <c r="J2" s="566"/>
+      <c r="K2" s="569">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="541"/>
+      <c r="L2" s="570"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="532"/>
-      <c r="Q2" s="532"/>
+      <c r="P2" s="561"/>
+      <c r="Q2" s="561"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="523"/>
-      <c r="C3" s="524"/>
-      <c r="D3" s="525"/>
-      <c r="E3" s="533" t="s">
+      <c r="B3" s="552"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="562" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="534"/>
-      <c r="G3" s="534"/>
-      <c r="H3" s="535"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="539"/>
-      <c r="K3" s="542"/>
-      <c r="L3" s="543"/>
+      <c r="F3" s="563"/>
+      <c r="G3" s="563"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="567"/>
+      <c r="J3" s="568"/>
+      <c r="K3" s="571"/>
+      <c r="L3" s="572"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11996,11 +12090,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="527"/>
-      <c r="D4" s="528"/>
+      <c r="B4" s="555"/>
+      <c r="C4" s="556"/>
+      <c r="D4" s="557"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12017,24 +12111,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="548"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="535"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="549"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="505"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="536"/>
+      <c r="J5" s="537"/>
+      <c r="K5" s="514"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12043,24 +12137,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="551"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="538"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="549"/>
-      <c r="J6" s="550"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="536"/>
+      <c r="J6" s="537"/>
+      <c r="K6" s="514"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12069,29 +12163,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="507">
+      <c r="C7" s="542"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="541" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="495">
+      <c r="J7" s="545"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12100,7 +12194,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12121,7 +12215,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12157,7 +12251,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12193,7 +12287,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -12229,7 +12323,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -12265,7 +12359,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -12301,7 +12395,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -12337,7 +12431,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -12373,7 +12467,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -12409,7 +12503,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="105" t="s">
         <v>32</v>
@@ -12445,7 +12539,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="105" t="s">
         <v>33</v>
@@ -12481,7 +12575,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="105" t="s">
         <v>34</v>
@@ -12517,7 +12611,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="105" t="s">
         <v>35</v>
@@ -12550,7 +12644,7 @@
       <c r="R20" s="336"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="112"/>
       <c r="B21" s="113"/>
       <c r="C21" s="113"/>
@@ -12571,9 +12665,15 @@
       <c r="R21" s="115"/>
       <c r="S21" s="116"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12586,12 +12686,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12623,20 +12717,20 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -12657,49 +12751,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="520"/>
-      <c r="C2" s="521"/>
-      <c r="D2" s="522"/>
-      <c r="E2" s="529" t="s">
+      <c r="B2" s="549"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="551"/>
+      <c r="E2" s="558" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="530"/>
-      <c r="G2" s="530"/>
-      <c r="H2" s="531"/>
-      <c r="I2" s="536" t="s">
+      <c r="F2" s="559"/>
+      <c r="G2" s="559"/>
+      <c r="H2" s="560"/>
+      <c r="I2" s="565" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="537"/>
-      <c r="K2" s="540">
+      <c r="J2" s="566"/>
+      <c r="K2" s="569">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="541"/>
+      <c r="L2" s="570"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="592"/>
-      <c r="Q2" s="592"/>
+      <c r="P2" s="603"/>
+      <c r="Q2" s="603"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="523"/>
-      <c r="C3" s="524"/>
-      <c r="D3" s="525"/>
-      <c r="E3" s="533" t="s">
+      <c r="B3" s="552"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="554"/>
+      <c r="E3" s="562" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="534"/>
-      <c r="G3" s="534"/>
-      <c r="H3" s="535"/>
-      <c r="I3" s="538"/>
-      <c r="J3" s="539"/>
-      <c r="K3" s="542"/>
-      <c r="L3" s="543"/>
+      <c r="F3" s="563"/>
+      <c r="G3" s="563"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="567"/>
+      <c r="J3" s="568"/>
+      <c r="K3" s="571"/>
+      <c r="L3" s="572"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12708,11 +12802,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="526"/>
-      <c r="C4" s="527"/>
-      <c r="D4" s="528"/>
+      <c r="B4" s="555"/>
+      <c r="C4" s="556"/>
+      <c r="D4" s="557"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12729,24 +12823,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="548"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="535"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="549"/>
-      <c r="J5" s="550"/>
-      <c r="K5" s="505"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="536"/>
+      <c r="J5" s="537"/>
+      <c r="K5" s="514"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -12755,24 +12849,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="551"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="538"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="549"/>
-      <c r="J6" s="550"/>
-      <c r="K6" s="505"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="536"/>
+      <c r="J6" s="537"/>
+      <c r="K6" s="514"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -12781,29 +12875,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="507">
+      <c r="C7" s="542"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="541" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="495">
+      <c r="J7" s="545"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -12812,7 +12906,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -12833,7 +12927,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12866,7 +12960,7 @@
       <c r="R9" s="338"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -12899,7 +12993,7 @@
       <c r="R10" s="340"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -12932,7 +13026,7 @@
       <c r="R11" s="340"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -12965,7 +13059,7 @@
       <c r="R12" s="340"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -12998,7 +13092,7 @@
       <c r="R13" s="340"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13031,7 +13125,7 @@
       <c r="R14" s="340"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13064,7 +13158,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13085,9 +13179,20 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13095,17 +13200,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13141,20 +13235,20 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13175,62 +13269,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="580"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="582"/>
+      <c r="E2" s="589" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="590"/>
+      <c r="G2" s="590"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="582"/>
-      <c r="M2" s="593"/>
-      <c r="N2" s="594"/>
-      <c r="O2" s="594"/>
-      <c r="P2" s="594"/>
-      <c r="Q2" s="594"/>
-      <c r="R2" s="595"/>
+      <c r="L2" s="600"/>
+      <c r="M2" s="604"/>
+      <c r="N2" s="605"/>
+      <c r="O2" s="605"/>
+      <c r="P2" s="605"/>
+      <c r="Q2" s="605"/>
+      <c r="R2" s="606"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="583"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="592" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
-      <c r="M3" s="596"/>
-      <c r="N3" s="597"/>
-      <c r="O3" s="597"/>
-      <c r="P3" s="597"/>
-      <c r="Q3" s="597"/>
-      <c r="R3" s="598"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
+      <c r="M3" s="607"/>
+      <c r="N3" s="608"/>
+      <c r="O3" s="608"/>
+      <c r="P3" s="608"/>
+      <c r="Q3" s="608"/>
+      <c r="R3" s="609"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="587"/>
+      <c r="D4" s="588"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13239,98 +13333,98 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="596"/>
-      <c r="N4" s="597"/>
-      <c r="O4" s="597"/>
-      <c r="P4" s="597"/>
-      <c r="Q4" s="597"/>
-      <c r="R4" s="598"/>
+      <c r="M4" s="607"/>
+      <c r="N4" s="608"/>
+      <c r="O4" s="608"/>
+      <c r="P4" s="608"/>
+      <c r="Q4" s="608"/>
+      <c r="R4" s="609"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="573"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="506"/>
-      <c r="M5" s="596"/>
-      <c r="N5" s="597"/>
-      <c r="O5" s="597"/>
-      <c r="P5" s="597"/>
-      <c r="Q5" s="597"/>
-      <c r="R5" s="598"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="576"/>
+      <c r="L5" s="515"/>
+      <c r="M5" s="607"/>
+      <c r="N5" s="608"/>
+      <c r="O5" s="608"/>
+      <c r="P5" s="608"/>
+      <c r="Q5" s="608"/>
+      <c r="R5" s="609"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="588"/>
-      <c r="L6" s="506"/>
-      <c r="M6" s="596"/>
-      <c r="N6" s="597"/>
-      <c r="O6" s="597"/>
-      <c r="P6" s="597"/>
-      <c r="Q6" s="597"/>
-      <c r="R6" s="598"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
+      <c r="K6" s="576"/>
+      <c r="L6" s="515"/>
+      <c r="M6" s="607"/>
+      <c r="N6" s="608"/>
+      <c r="O6" s="608"/>
+      <c r="P6" s="608"/>
+      <c r="Q6" s="608"/>
+      <c r="R6" s="609"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="589"/>
-      <c r="D7" s="507">
+      <c r="C7" s="577"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="578" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="589"/>
-      <c r="K7" s="495">
+      <c r="J7" s="577"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
-      <c r="M7" s="596"/>
-      <c r="N7" s="597"/>
-      <c r="O7" s="597"/>
-      <c r="P7" s="597"/>
-      <c r="Q7" s="597"/>
-      <c r="R7" s="598"/>
+      <c r="L7" s="505"/>
+      <c r="M7" s="607"/>
+      <c r="N7" s="608"/>
+      <c r="O7" s="608"/>
+      <c r="P7" s="608"/>
+      <c r="Q7" s="608"/>
+      <c r="R7" s="609"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13351,7 +13445,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -13384,7 +13478,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13417,7 +13511,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="202" t="s">
         <v>26</v>
@@ -13450,7 +13544,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="202" t="s">
         <v>2</v>
@@ -13483,7 +13577,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="202" t="s">
         <v>3</v>
@@ -13516,7 +13610,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -13549,7 +13643,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -13582,7 +13676,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -13615,7 +13709,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -13648,7 +13742,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -13681,7 +13775,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -13714,7 +13808,7 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="97" t="s">
         <v>39</v>
@@ -13747,14 +13841,14 @@
       <c r="R20" s="108"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="544" t="s">
+      <c r="B21" s="531" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="545"/>
-      <c r="D21" s="545"/>
-      <c r="E21" s="546"/>
+      <c r="C21" s="532"/>
+      <c r="D21" s="532"/>
+      <c r="E21" s="533"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -13774,7 +13868,7 @@
       <c r="R21" s="111"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="112"/>
       <c r="B22" s="113"/>
       <c r="C22" s="113"/>
@@ -13795,18 +13889,11 @@
       <c r="R22" s="115"/>
       <c r="S22" s="116"/>
     </row>
-    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -13819,6 +13906,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -13848,19 +13942,19 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13881,49 +13975,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="580"/>
+      <c r="C2" s="581"/>
+      <c r="D2" s="582"/>
+      <c r="E2" s="589" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="577" t="s">
+      <c r="F2" s="590"/>
+      <c r="G2" s="590"/>
+      <c r="H2" s="591"/>
+      <c r="I2" s="595" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="581">
+      <c r="J2" s="596"/>
+      <c r="K2" s="599">
         <f>Данные!B19</f>
         <v>60</v>
       </c>
-      <c r="L2" s="582"/>
+      <c r="L2" s="600"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="599"/>
-      <c r="Q2" s="599"/>
+      <c r="P2" s="610"/>
+      <c r="Q2" s="610"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="574" t="s">
+      <c r="B3" s="583"/>
+      <c r="C3" s="584"/>
+      <c r="D3" s="585"/>
+      <c r="E3" s="592" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="575"/>
-      <c r="G3" s="575"/>
-      <c r="H3" s="576"/>
-      <c r="I3" s="579"/>
-      <c r="J3" s="580"/>
-      <c r="K3" s="583"/>
-      <c r="L3" s="584"/>
+      <c r="F3" s="593"/>
+      <c r="G3" s="593"/>
+      <c r="H3" s="594"/>
+      <c r="I3" s="597"/>
+      <c r="J3" s="598"/>
+      <c r="K3" s="601"/>
+      <c r="L3" s="602"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13932,11 +14026,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="586"/>
+      <c r="C4" s="587"/>
+      <c r="D4" s="588"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -13953,24 +14047,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="547" t="s">
+      <c r="B5" s="534" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="504" t="str">
+      <c r="C5" s="573"/>
+      <c r="D5" s="513" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="505"/>
-      <c r="F5" s="505"/>
-      <c r="G5" s="505"/>
-      <c r="H5" s="506"/>
-      <c r="I5" s="586"/>
-      <c r="J5" s="587"/>
-      <c r="K5" s="588"/>
-      <c r="L5" s="506"/>
+      <c r="E5" s="514"/>
+      <c r="F5" s="514"/>
+      <c r="G5" s="514"/>
+      <c r="H5" s="515"/>
+      <c r="I5" s="574"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="576"/>
+      <c r="L5" s="515"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13979,24 +14073,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="547" t="s">
+      <c r="B6" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="585"/>
-      <c r="D6" s="498" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="507" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-28-1-200 (Бутылка 0.2 л.)</v>
       </c>
-      <c r="E6" s="552"/>
-      <c r="F6" s="552"/>
-      <c r="G6" s="552"/>
-      <c r="H6" s="553"/>
-      <c r="I6" s="586"/>
-      <c r="J6" s="587"/>
-      <c r="K6" s="588"/>
-      <c r="L6" s="506"/>
+      <c r="E6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="539"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="574"/>
+      <c r="J6" s="575"/>
+      <c r="K6" s="576"/>
+      <c r="L6" s="515"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14005,29 +14099,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="541" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="589"/>
-      <c r="D7" s="507">
+      <c r="C7" s="577"/>
+      <c r="D7" s="516">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="590" t="s">
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="544"/>
+      <c r="I7" s="578" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="589"/>
-      <c r="K7" s="495">
+      <c r="J7" s="577"/>
+      <c r="K7" s="504">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="496"/>
+      <c r="L7" s="505"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14036,7 +14130,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14057,7 +14151,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="256" t="s">
         <v>17</v>
@@ -14090,7 +14184,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="131" t="s">
         <v>26</v>
@@ -14123,7 +14217,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="131" t="s">
         <v>2</v>
@@ -14156,7 +14250,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="131" t="s">
         <v>3</v>
@@ -14189,7 +14283,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="131" t="s">
         <v>27</v>
@@ -14222,7 +14316,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="131" t="s">
         <v>9</v>
@@ -14255,7 +14349,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="131" t="s">
         <v>5</v>
@@ -14288,14 +14382,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="544" t="s">
+      <c r="B16" s="531" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="545"/>
-      <c r="D16" s="545"/>
-      <c r="E16" s="546"/>
+      <c r="C16" s="532"/>
+      <c r="D16" s="532"/>
+      <c r="E16" s="533"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -14315,7 +14409,7 @@
       <c r="R16" s="124"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="112"/>
       <c r="B17" s="130"/>
       <c r="C17" s="129"/>
@@ -14336,20 +14430,11 @@
       <c r="R17" s="115"/>
       <c r="S17" s="116"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14360,6 +14445,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-1-200-5 (Круглая 0,2 л.)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-1-200-5 (Круглая 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE000CE-8113-4410-BEAB-905CB8399208}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-15" windowWidth="14445" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Паспорт" sheetId="16" r:id="rId1"/>
@@ -36,7 +37,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -514,14 +522,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2154,7 +2162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="622">
@@ -3365,7 +3373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3377,7 +3385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3438,25 +3446,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3468,8 +3476,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3478,7 +3486,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3493,7 +3501,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3504,13 +3512,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="94" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3523,7 +3531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3547,22 +3555,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3583,10 +3591,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="94" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="89" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3939,26 +3947,26 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4248,7 +4256,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4294,7 +4308,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4339,7 +4359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4383,7 +4409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4432,7 +4464,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4478,7 +4516,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4522,7 +4566,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4566,7 +4616,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4615,7 +4671,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4661,7 +4723,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4705,7 +4773,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4749,7 +4823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4798,7 +4878,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4844,7 +4930,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4888,7 +4980,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4932,7 +5030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4981,7 +5085,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5027,7 +5137,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5071,7 +5187,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5115,7 +5237,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5164,7 +5292,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5210,7 +5344,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5254,7 +5394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5297,7 +5443,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5343,7 +5495,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5392,7 +5550,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5438,7 +5602,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5482,7 +5652,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5526,7 +5702,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5575,7 +5757,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5621,7 +5809,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5665,7 +5859,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5709,7 +5909,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5758,7 +5964,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5804,7 +6016,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5848,7 +6066,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5892,7 +6116,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6000,6 +6230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6035,6 +6282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6210,11 +6474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6782,11 +7046,11 @@
         <v>0.10208410714285714</v>
       </c>
       <c r="H22" s="444">
-        <f>H21-F22</f>
+        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
         <v>12350967</v>
       </c>
       <c r="I22" s="445">
-        <f>I21-G22</f>
+        <f t="shared" si="2"/>
         <v>0.73517660714285715</v>
       </c>
       <c r="J22" s="487"/>
@@ -6815,11 +7079,11 @@
         <v>5.1546011904761907E-2</v>
       </c>
       <c r="H23" s="444">
-        <f>H22-F23</f>
+        <f t="shared" si="2"/>
         <v>11484994</v>
       </c>
       <c r="I23" s="445">
-        <f>I22-G23</f>
+        <f t="shared" si="2"/>
         <v>0.68363059523809522</v>
       </c>
       <c r="J23" s="488">
@@ -6850,15 +7114,15 @@
         <v>9.1739345238095238E-2</v>
       </c>
       <c r="H24" s="444">
-        <f>H23-F24</f>
+        <f t="shared" si="2"/>
         <v>9943773</v>
       </c>
       <c r="I24" s="445">
-        <f>I23-G24</f>
+        <f t="shared" si="2"/>
         <v>0.59189124999999998</v>
       </c>
       <c r="J24" s="489">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="440"/>
       <c r="L24" s="396"/>
@@ -7288,7 +7552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7901,7 +8165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8527,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9135,7 +9399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9194,16 +9458,16 @@
         <v>11</v>
       </c>
       <c r="J2" s="596"/>
-      <c r="K2" s="618">
+      <c r="K2" s="617">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="618"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="617"/>
-      <c r="Q2" s="617"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
@@ -9220,8 +9484,8 @@
       <c r="H3" s="594"/>
       <c r="I3" s="597"/>
       <c r="J3" s="598"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="K3" s="619"/>
+      <c r="L3" s="620"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9598,9 +9862,6 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9616,6 +9877,9 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9641,7 +9905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -9961,7 +10225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10678,7 +10942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11477,7 +11741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11995,7 +12259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12668,9 +12932,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -12686,6 +12947,9 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12707,7 +12971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13222,7 +13486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13932,7 +14196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-В-28-1-200-5 (Круглая 0,2 л.)/от 03.10.2019 Круглая 0.2 л..xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-1-200-5 (Круглая 0,2 л.)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-В-28-1-200-5 (Круглая 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE000CE-8113-4410-BEAB-905CB8399208}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F11A4-5467-4ABD-B7A5-4D32CC4B5372}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="156">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -3947,6 +3947,9 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3957,9 +3960,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6478,7 +6478,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7129,29 +7129,71 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="446"/>
-      <c r="B25" s="447"/>
-      <c r="C25" s="447"/>
-      <c r="D25" s="447"/>
-      <c r="E25" s="485"/>
-      <c r="F25" s="449"/>
-      <c r="G25" s="451"/>
-      <c r="H25" s="449"/>
-      <c r="I25" s="450"/>
-      <c r="J25" s="488"/>
+      <c r="B25" s="447">
+        <v>44284</v>
+      </c>
+      <c r="C25" s="477" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="447">
+        <v>44287</v>
+      </c>
+      <c r="E25" s="485">
+        <v>601592</v>
+      </c>
+      <c r="F25" s="449">
+        <v>646320</v>
+      </c>
+      <c r="G25" s="451">
+        <f>F25/A$21</f>
+        <v>3.8471428571428573E-2</v>
+      </c>
+      <c r="H25" s="444">
+        <f t="shared" ref="H25" si="3">H24-F25</f>
+        <v>9297453</v>
+      </c>
+      <c r="I25" s="445">
+        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <v>0.55341982142857138</v>
+      </c>
+      <c r="J25" s="488">
+        <v>164</v>
+      </c>
       <c r="K25" s="452"/>
       <c r="L25" s="396"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="446"/>
-      <c r="B26" s="447"/>
-      <c r="C26" s="447"/>
-      <c r="D26" s="447"/>
-      <c r="E26" s="485"/>
-      <c r="F26" s="449"/>
-      <c r="G26" s="451"/>
-      <c r="H26" s="449"/>
-      <c r="I26" s="450"/>
-      <c r="J26" s="488"/>
+      <c r="B26" s="477" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="447">
+        <v>44287</v>
+      </c>
+      <c r="D26" s="447">
+        <v>44319</v>
+      </c>
+      <c r="E26" s="485">
+        <v>212072</v>
+      </c>
+      <c r="F26" s="449">
+        <v>215772</v>
+      </c>
+      <c r="G26" s="451">
+        <f>F26/A$21</f>
+        <v>1.2843571428571428E-2</v>
+      </c>
+      <c r="H26" s="444">
+        <f t="shared" ref="H26" si="5">H25-F26</f>
+        <v>9081681</v>
+      </c>
+      <c r="I26" s="445">
+        <f t="shared" ref="I26" si="6">I25-G26</f>
+        <v>0.54057624999999998</v>
+      </c>
+      <c r="J26" s="488">
+        <v>164</v>
+      </c>
       <c r="K26" s="440"/>
       <c r="L26" s="396"/>
     </row>
@@ -7234,23 +7276,23 @@
       <c r="D32" s="460"/>
       <c r="E32" s="461">
         <f>SUM(E21:E31)</f>
-        <v>6375401</v>
+        <v>7189065</v>
       </c>
       <c r="F32" s="462">
         <f>SUM(F21:F31)</f>
-        <v>6856227</v>
+        <v>7718319</v>
       </c>
       <c r="G32" s="463">
         <f>SUM(G21:G31)</f>
-        <v>0.40810875000000002</v>
+        <v>0.45942375000000008</v>
       </c>
       <c r="H32" s="464">
         <f>A21-F32</f>
-        <v>9943773</v>
+        <v>9081681</v>
       </c>
       <c r="I32" s="465">
         <f>1-G32</f>
-        <v>0.59189124999999998</v>
+        <v>0.54057624999999998</v>
       </c>
       <c r="J32" s="492"/>
       <c r="K32" s="466"/>
@@ -7303,16 +7345,16 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="493">
         <f>A21-F32</f>
-        <v>9943773</v>
+        <v>9081681</v>
       </c>
       <c r="B38" s="494"/>
       <c r="C38" s="468">
         <f>1-G32</f>
-        <v>0.59189124999999998</v>
+        <v>0.54057624999999998</v>
       </c>
       <c r="D38" s="469">
         <f>(C38/0.8)*100</f>
-        <v>73.986406249999987</v>
+        <v>67.572031249999995</v>
       </c>
       <c r="E38" s="470" t="s">
         <v>153</v>
@@ -9458,16 +9500,16 @@
         <v>11</v>
       </c>
       <c r="J2" s="596"/>
-      <c r="K2" s="617">
+      <c r="K2" s="618">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="617"/>
+      <c r="Q2" s="617"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
@@ -9484,8 +9526,8 @@
       <c r="H3" s="594"/>
       <c r="I3" s="597"/>
       <c r="J3" s="598"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -9862,6 +9904,10 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -9876,10 +9922,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -12932,9 +12974,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12950,6 +12989,9 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
